--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Lachnit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Johannes Haag</author>
+  </authors>
+  <commentList>
+    <comment ref="AH2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Johannes Haag:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+VWL Klausur</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -35,9 +69,6 @@
     <t>Design Guide erstellen</t>
   </si>
   <si>
-    <t>Klassenmodell erstellen</t>
-  </si>
-  <si>
     <t>ER Modell erstellen</t>
   </si>
   <si>
@@ -50,15 +81,9 @@
     <t>Systemarchitektur erstellen</t>
   </si>
   <si>
-    <t>Programmierung</t>
-  </si>
-  <si>
     <t>Aufgaben</t>
   </si>
   <si>
-    <t>Aufwandsschätzung in h</t>
-  </si>
-  <si>
     <t>Ansprechpartner</t>
   </si>
   <si>
@@ -83,9 +108,6 @@
     <t>DB erstellen</t>
   </si>
   <si>
-    <t>JDBC</t>
-  </si>
-  <si>
     <t>DB Schnittstelle</t>
   </si>
   <si>
@@ -119,14 +141,119 @@
     <t>Qualitätsmanagement</t>
   </si>
   <si>
-    <t>planmäßiger End-Termin</t>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>QM-Maßnahme</t>
+  </si>
+  <si>
+    <t>Entwurf</t>
+  </si>
+  <si>
+    <t>Realisierung</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Testdurchführung fachlich</t>
+  </si>
+  <si>
+    <t>Testdurchführung GUI</t>
+  </si>
+  <si>
+    <t>Aufwand in h</t>
+  </si>
+  <si>
+    <t>End-Termin</t>
+  </si>
+  <si>
+    <t>Review in Gruppe</t>
+  </si>
+  <si>
+    <t>Review in Gruppe, Diskussion mit Auftraggeber</t>
+  </si>
+  <si>
+    <t>Review durch Gruppe</t>
+  </si>
+  <si>
+    <t>Review durch Fachliche Implementierung</t>
+  </si>
+  <si>
+    <t>Review durch Datenbank</t>
+  </si>
+  <si>
+    <t>Review fachl. Implementierung</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Review durch ?, Diskussion mit Auftraggeber</t>
+  </si>
+  <si>
+    <t>Klassenodell erstellen</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>Johannes</t>
+  </si>
+  <si>
+    <t>Review durch TPL</t>
+  </si>
+  <si>
+    <t>gestartet</t>
+  </si>
+  <si>
+    <t>Präsentationsunterlagen erstellen</t>
+  </si>
+  <si>
+    <t>Start-Termin</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Abstimmung mit Auftraggeber</t>
+  </si>
+  <si>
+    <t>Abgabe detaillierte Aufwandsschätzung (nach Abstimmung bzgl. Design Guide)</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Erforderliche Unterlagen/Ergebnisse vollständig, korrekt und in GIT abgelegt?</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="d"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +261,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +288,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,19 +336,783 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -459,216 +1387,1769 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.5" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="39.75" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="64.125" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="10" width="3.125" customWidth="1" collapsed="1"/>
+    <col min="11" max="44" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:44">
+      <c r="J1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="6">
+        <v>41544</v>
+      </c>
+      <c r="K2" s="7">
+        <v>41545</v>
+      </c>
+      <c r="L2" s="9">
+        <v>41546</v>
+      </c>
+      <c r="M2" s="4">
+        <v>41547</v>
+      </c>
+      <c r="N2" s="4">
+        <v>41548</v>
+      </c>
+      <c r="O2" s="4">
+        <v>41549</v>
+      </c>
+      <c r="P2" s="4">
+        <v>41550</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>41551</v>
+      </c>
+      <c r="R2" s="7">
+        <v>41552</v>
+      </c>
+      <c r="S2" s="9">
+        <v>41553</v>
+      </c>
+      <c r="T2" s="4">
+        <v>41554</v>
+      </c>
+      <c r="U2" s="6">
+        <v>41555</v>
+      </c>
+      <c r="V2" s="6">
+        <v>41556</v>
+      </c>
+      <c r="W2" s="6">
+        <v>41557</v>
+      </c>
+      <c r="X2" s="6">
+        <v>41558</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>41559</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>41560</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>41561</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>41562</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>41563</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>41564</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>41565</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>41566</v>
+      </c>
+      <c r="AG2" s="9">
+        <v>41567</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>41568</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>41569</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>41570</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>41571</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>41572</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>41573</v>
+      </c>
+      <c r="AN2" s="9">
+        <v>41574</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>41575</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>41576</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>41577</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>41578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" outlineLevel="1">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E3" s="2">
+        <v>41544</v>
+      </c>
+      <c r="F3" s="2">
+        <v>41544</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="10"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="10"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="10"/>
+      <c r="AB3" s="12"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="10"/>
+      <c r="AI3" s="12"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+    </row>
+    <row r="4" spans="1:44" outlineLevel="1">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E4" s="2">
+        <v>41544</v>
+      </c>
+      <c r="F4" s="2">
+        <v>41551</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="10"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="10"/>
+      <c r="AB4" s="12"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="10"/>
+      <c r="AI4" s="12"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+    </row>
+    <row r="5" spans="1:44" outlineLevel="1">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E5" s="2">
+        <v>41544</v>
+      </c>
+      <c r="F5" s="2">
+        <v>41551</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="10"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="10"/>
+      <c r="AB5" s="12"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="10"/>
+      <c r="AI5" s="12"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+    </row>
+    <row r="6" spans="1:44" outlineLevel="1">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>41551</v>
+      </c>
+      <c r="F6" s="2">
+        <v>41555</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="10"/>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="10"/>
+      <c r="AB6" s="12"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="10"/>
+      <c r="AI6" s="12"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="10"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="10"/>
+      <c r="AB7" s="12"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="10"/>
+      <c r="AI7" s="12"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2">
+        <v>41555</v>
+      </c>
+      <c r="F8" s="2">
+        <v>41555</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="10"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="10"/>
+      <c r="U8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="10"/>
+      <c r="AB8" s="12"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="10"/>
+      <c r="AI8" s="12"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="J9" s="12"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="10"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="10"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="10"/>
+      <c r="AB9" s="12"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="10"/>
+      <c r="AI9" s="12"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+    </row>
+    <row r="10" spans="1:44" outlineLevel="1">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>41555</v>
+      </c>
+      <c r="F10" s="2">
+        <v>41556</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="10"/>
+      <c r="U10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="10"/>
+      <c r="AB10" s="12"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="10"/>
+      <c r="AI10" s="12"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+    </row>
+    <row r="11" spans="1:44" outlineLevel="1">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>41555</v>
+      </c>
+      <c r="F11" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="10"/>
+      <c r="U11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="10"/>
+      <c r="AB11" s="12"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="10"/>
+      <c r="AI11" s="12"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+    </row>
+    <row r="12" spans="1:44" outlineLevel="1">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>41555</v>
+      </c>
+      <c r="F12" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="10"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="10"/>
+      <c r="U12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="10"/>
+      <c r="AB12" s="12"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="10"/>
+      <c r="AI12" s="12"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+    </row>
+    <row r="13" spans="1:44" outlineLevel="1">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2">
+        <v>41555</v>
+      </c>
+      <c r="F13" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="10"/>
+      <c r="U13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="10"/>
+      <c r="AB13" s="12"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="10"/>
+      <c r="AI13" s="12"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="J14" s="12"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="10"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="10"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="10"/>
+      <c r="AB14" s="12"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="10"/>
+      <c r="AI14" s="12"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F15" s="2">
+        <v>41557</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="10"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="10"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="10"/>
+      <c r="AB15" s="12"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="10"/>
+      <c r="AI15" s="12"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F16" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="10"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="10"/>
+      <c r="AB16" s="12"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="10"/>
+      <c r="AI16" s="12"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="J17" s="12"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="10"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="10"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="10"/>
+      <c r="AB17" s="12"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="10"/>
+      <c r="AI17" s="12"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+    </row>
+    <row r="18" spans="1:44" outlineLevel="1">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
-        <v>41544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E18" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F18" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="10"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="10"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="10"/>
+      <c r="AB18" s="12"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="10"/>
+      <c r="AI18" s="12"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+    </row>
+    <row r="19" spans="1:44" outlineLevel="1">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F19" s="2">
+        <v>41562</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="10"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="10"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="10"/>
+      <c r="AI19" s="12"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+    </row>
+    <row r="20" spans="1:44" outlineLevel="1">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F20" s="2">
+        <v>41562</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="10"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="10"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="10"/>
+      <c r="AI20" s="12"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+    </row>
+    <row r="21" spans="1:44" outlineLevel="1">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F21" s="2">
+        <v>41562</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="10"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="10"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="10"/>
+      <c r="AI21" s="12"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+    </row>
+    <row r="22" spans="1:44" outlineLevel="1">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F22" s="2">
+        <v>41562</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="10"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="10"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="10"/>
+      <c r="AI22" s="12"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+    </row>
+    <row r="23" spans="1:44" outlineLevel="1">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F23" s="2">
+        <v>41562</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="10"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="10"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="10"/>
+      <c r="AI23" s="12"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+    </row>
+    <row r="24" spans="1:44" outlineLevel="1">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F24" s="2">
+        <v>41562</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="10"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="10"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="10"/>
+      <c r="AI24" s="12"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+    </row>
+    <row r="25" spans="1:44" outlineLevel="1">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F25" s="2">
+        <v>41562</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="10"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="10"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="10"/>
+      <c r="AB25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="10"/>
+      <c r="AI25" s="12"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+    </row>
+    <row r="26" spans="1:44" outlineLevel="1">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F26" s="2">
+        <v>41569</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="10"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="10"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="10"/>
+      <c r="AB26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI26" s="12"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="J27" s="12"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="10"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="10"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="10"/>
+      <c r="AB27" s="12"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="10"/>
+      <c r="AI27" s="12"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+    </row>
+    <row r="28" spans="1:44" outlineLevel="1">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F28" s="2">
+        <v>41577</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="10"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="10"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="10"/>
+      <c r="AB28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR28" s="12"/>
+    </row>
+    <row r="29" spans="1:44" outlineLevel="1">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F29" s="2">
+        <v>41577</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="10"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="10"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="10"/>
+      <c r="AB29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR29" s="12"/>
+    </row>
+    <row r="30" spans="1:44" outlineLevel="1">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2">
+        <v>41577</v>
+      </c>
+      <c r="F30" s="2">
+        <v>41577</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="10"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="10"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="10"/>
+      <c r="AB30" s="12"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="10"/>
+      <c r="AI30" s="12"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR30" s="12"/>
+    </row>
+    <row r="31" spans="1:44" outlineLevel="1">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F31" s="2">
+        <v>41577</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="10"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="10"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="10"/>
+      <c r="AB31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR31" s="12"/>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="10"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="10"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="10"/>
+      <c r="AB32" s="12"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="10"/>
+      <c r="AI32" s="12"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+    </row>
+    <row r="33" spans="1:44">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2">
+        <v>41544</v>
+      </c>
+      <c r="F33" s="2">
+        <v>41577</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" t="s">
+        <v>61</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>61</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T33" t="s">
+        <v>61</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR33" s="12"/>
+    </row>
+    <row r="34" spans="1:44">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2">
+        <v>41577</v>
+      </c>
+      <c r="F34" s="2">
+        <v>41577</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="10"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="10"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="10"/>
+      <c r="AB34" s="12"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="10"/>
+      <c r="AI34" s="12"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR34" s="12"/>
+    </row>
+    <row r="35" spans="1:44">
+      <c r="J35" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:AR1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:AQ34">
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
+      <formula>"m"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="24000" windowHeight="9870"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="15360" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="71">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -265,10 +265,13 @@
     <t>GUI</t>
   </si>
   <si>
-    <t>tbd</t>
-  </si>
-  <si>
-    <t>Marc</t>
+    <t>Adriana, Natalja</t>
+  </si>
+  <si>
+    <t>Ralf</t>
+  </si>
+  <si>
+    <t>Marc, Ralf, Katrin, Johannes</t>
   </si>
 </sst>
 </file>
@@ -695,16 +698,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="5" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="10.5" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="8" max="8" width="39.75" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="9" max="9" width="64.125" hidden="1" customWidth="1" outlineLevel="2"/>
@@ -2463,15 +2466,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2504,7 +2507,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2514,13 +2517,19 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Projektmanagement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="15360" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
     <sheet name="Teams" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A13:AM32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="72">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -70,9 +66,6 @@
     <t>Design Guide erstellen</t>
   </si>
   <si>
-    <t>ER Modell erstellen</t>
-  </si>
-  <si>
     <t>Aktivitätsdiagram erstellen</t>
   </si>
   <si>
@@ -272,6 +265,12 @@
   </si>
   <si>
     <t>Marc, Ralf, Katrin, Johannes</t>
+  </si>
+  <si>
+    <t>ready4review</t>
+  </si>
+  <si>
+    <t>in Gruppe abgestimmt</t>
   </si>
 </sst>
 </file>
@@ -402,21 +401,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -696,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR35"/>
+  <dimension ref="A1:AR37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -708,7 +707,7 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="10.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.5" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="11.625" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="8" max="8" width="39.75" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="9" max="9" width="64.125" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="10" max="10" width="3.125" customWidth="1" collapsed="1"/>
@@ -717,13 +716,13 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="J1" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -758,31 +757,31 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="5">
         <v>41544</v>
@@ -890,15 +889,15 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:44" outlineLevel="1">
+    <row r="3" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>41544</v>
@@ -907,13 +906,13 @@
         <v>41544</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="9"/>
@@ -936,15 +935,15 @@
       <c r="AQ3" s="11"/>
       <c r="AR3" s="11"/>
     </row>
-    <row r="4" spans="1:44" outlineLevel="1">
+    <row r="4" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>41544</v>
@@ -953,31 +952,25 @@
         <v>41551</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="9"/>
@@ -998,12 +991,12 @@
       <c r="AQ4" s="11"/>
       <c r="AR4" s="11"/>
     </row>
-    <row r="5" spans="1:44" outlineLevel="1">
+    <row r="5" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1015,31 +1008,31 @@
         <v>41551</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="9"/>
@@ -1060,43 +1053,15 @@
       <c r="AQ5" s="11"/>
       <c r="AR5" s="11"/>
     </row>
-    <row r="6" spans="1:44" outlineLevel="1">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>41551</v>
-      </c>
-      <c r="F6" s="2">
-        <v>41555</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
+    <row r="6" spans="1:44" customFormat="1">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="J6" s="11"/>
       <c r="K6" s="7"/>
       <c r="L6" s="9"/>
-      <c r="Q6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="9"/>
+      <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -1113,15 +1078,33 @@
       <c r="AQ6" s="11"/>
       <c r="AR6" s="11"/>
     </row>
-    <row r="7" spans="1:44">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+    <row r="7" spans="1:44" customFormat="1">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2">
+        <v>41555</v>
+      </c>
+      <c r="F7" s="2">
+        <v>41555</v>
+      </c>
       <c r="J7" s="11"/>
       <c r="K7" s="7"/>
       <c r="L7" s="9"/>
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="9"/>
-      <c r="U7" s="11"/>
+      <c r="U7" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -1138,30 +1121,13 @@
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
     </row>
-    <row r="8" spans="1:44">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2">
-        <v>41555</v>
-      </c>
-      <c r="F8" s="2">
-        <v>41555</v>
-      </c>
+    <row r="8" spans="1:44" customFormat="1">
       <c r="J8" s="11"/>
       <c r="K8" s="7"/>
       <c r="L8" s="9"/>
       <c r="R8" s="7"/>
       <c r="S8" s="9"/>
-      <c r="U8" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -1178,15 +1144,64 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>41555</v>
+      </c>
+      <c r="F9" s="2">
+        <v>41557</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="7"/>
       <c r="L9" s="9"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="9"/>
@@ -1201,15 +1216,15 @@
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
     </row>
-    <row r="10" spans="1:44" outlineLevel="1">
+    <row r="10" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2">
         <v>41555</v>
@@ -1218,7 +1233,7 @@
         <v>41556</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="7"/>
@@ -1226,10 +1241,10 @@
       <c r="R10" s="7"/>
       <c r="S10" s="9"/>
       <c r="U10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -1246,15 +1261,15 @@
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" spans="1:44" outlineLevel="1">
+    <row r="11" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>41555</v>
@@ -1263,7 +1278,7 @@
         <v>41557</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="7"/>
@@ -1271,13 +1286,13 @@
       <c r="R11" s="7"/>
       <c r="S11" s="9"/>
       <c r="U11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X11" s="11"/>
       <c r="Y11" s="7"/>
@@ -1293,9 +1308,9 @@
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" spans="1:44" outlineLevel="1">
+    <row r="12" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1318,13 +1333,13 @@
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
       <c r="U12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X12" s="11"/>
       <c r="Y12" s="7"/>
@@ -1340,39 +1355,15 @@
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:44" outlineLevel="1">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2">
-        <v>41555</v>
-      </c>
-      <c r="F13" s="2">
-        <v>41557</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
+    <row r="13" spans="1:44" customFormat="1">
       <c r="J13" s="11"/>
       <c r="K13" s="7"/>
       <c r="L13" s="9"/>
       <c r="R13" s="7"/>
       <c r="S13" s="9"/>
-      <c r="U13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="9"/>
@@ -1387,7 +1378,22 @@
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" customFormat="1">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F14" s="2">
+        <v>41557</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="7"/>
       <c r="L14" s="9"/>
@@ -1395,7 +1401,9 @@
       <c r="S14" s="9"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="9"/>
@@ -1410,21 +1418,24 @@
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" customFormat="1">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>41557</v>
       </c>
       <c r="F15" s="2">
         <v>41557</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="7"/>
@@ -1434,7 +1445,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="7"/>
@@ -1450,25 +1461,7 @@
       <c r="AQ15" s="11"/>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" spans="1:44">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2">
-        <v>41557</v>
-      </c>
-      <c r="F16" s="2">
-        <v>41557</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
+    <row r="16" spans="1:44" customFormat="1">
       <c r="J16" s="11"/>
       <c r="K16" s="7"/>
       <c r="L16" s="9"/>
@@ -1476,9 +1469,7 @@
       <c r="S16" s="9"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="9"/>
@@ -1493,7 +1484,25 @@
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F17" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -1501,7 +1510,9 @@
       <c r="S17" s="9"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="9"/>
@@ -1516,24 +1527,21 @@
       <c r="AQ17" s="11"/>
       <c r="AR17" s="11"/>
     </row>
-    <row r="18" spans="1:44" outlineLevel="1">
+    <row r="18" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2">
         <v>41557</v>
       </c>
       <c r="F18" s="2">
-        <v>41557</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
+        <v>41562</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="7"/>
@@ -1543,12 +1551,23 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="9"/>
-      <c r="AB18" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="9"/>
       <c r="AI18" s="11"/>
@@ -1559,9 +1578,9 @@
       <c r="AQ18" s="11"/>
       <c r="AR18" s="11"/>
     </row>
-    <row r="19" spans="1:44" outlineLevel="1">
+    <row r="19" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1583,22 +1602,22 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF19" s="7"/>
       <c r="AG19" s="9"/>
@@ -1610,15 +1629,15 @@
       <c r="AQ19" s="11"/>
       <c r="AR19" s="11"/>
     </row>
-    <row r="20" spans="1:44" outlineLevel="1">
+    <row r="20" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
         <v>41557</v>
@@ -1634,22 +1653,22 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="9"/>
@@ -1661,15 +1680,15 @@
       <c r="AQ20" s="11"/>
       <c r="AR20" s="11"/>
     </row>
-    <row r="21" spans="1:44" outlineLevel="1">
+    <row r="21" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
         <v>41557</v>
@@ -1685,22 +1704,22 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF21" s="7"/>
       <c r="AG21" s="9"/>
@@ -1712,15 +1731,15 @@
       <c r="AQ21" s="11"/>
       <c r="AR21" s="11"/>
     </row>
-    <row r="22" spans="1:44" outlineLevel="1">
+    <row r="22" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2">
         <v>41557</v>
@@ -1736,22 +1755,22 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="9"/>
@@ -1763,15 +1782,15 @@
       <c r="AQ22" s="11"/>
       <c r="AR22" s="11"/>
     </row>
-    <row r="23" spans="1:44" outlineLevel="1">
+    <row r="23" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2">
         <v>41557</v>
@@ -1787,22 +1806,22 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="9"/>
@@ -1814,18 +1833,18 @@
       <c r="AQ23" s="11"/>
       <c r="AR23" s="11"/>
     </row>
-    <row r="24" spans="1:44" outlineLevel="1">
+    <row r="24" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
-        <v>41557</v>
+        <v>41562</v>
       </c>
       <c r="F24" s="2">
         <v>41562</v>
@@ -1837,23 +1856,12 @@
       <c r="S24" s="9"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>60</v>
-      </c>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="9"/>
       <c r="AB24" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="9"/>
@@ -1865,12 +1873,12 @@
       <c r="AQ24" s="11"/>
       <c r="AR24" s="11"/>
     </row>
-    <row r="25" spans="1:44" outlineLevel="1">
+    <row r="25" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1879,7 +1887,7 @@
         <v>41562</v>
       </c>
       <c r="F25" s="2">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="7"/>
@@ -1895,8 +1903,21 @@
       <c r="AB25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="9"/>
+      <c r="AC25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="AI25" s="11"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="9"/>
@@ -1905,22 +1926,7 @@
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
     </row>
-    <row r="26" spans="1:44" outlineLevel="1">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2">
-        <v>41562</v>
-      </c>
-      <c r="F26" s="2">
-        <v>41569</v>
-      </c>
+    <row r="26" spans="1:44" customFormat="1">
       <c r="J26" s="11"/>
       <c r="K26" s="7"/>
       <c r="L26" s="9"/>
@@ -1932,24 +1938,9 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="9"/>
-      <c r="AB26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG26" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB26" s="11"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="9"/>
       <c r="AI26" s="11"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="9"/>
@@ -1958,7 +1949,22 @@
       <c r="AQ26" s="11"/>
       <c r="AR26" s="11"/>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F27" s="2">
+        <v>41577</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="7"/>
       <c r="L27" s="9"/>
@@ -1970,26 +1976,65 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="9"/>
-      <c r="AB27" s="11"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="9"/>
-      <c r="AI27" s="11"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
+      <c r="AB27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ27" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AR27" s="11"/>
     </row>
-    <row r="28" spans="1:44" outlineLevel="1">
+    <row r="28" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2">
         <v>41562</v>
@@ -2009,67 +2054,67 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="9"/>
       <c r="AB28" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI28" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AJ28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AM28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AO28" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AP28" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AQ28" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR28" s="11"/>
     </row>
-    <row r="29" spans="1:44" outlineLevel="1">
+    <row r="29" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>41562</v>
+        <v>41577</v>
       </c>
       <c r="F29" s="2">
         <v>41577</v>
@@ -2085,68 +2130,31 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="9"/>
-      <c r="AB29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP29" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB29" s="11"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="9"/>
+      <c r="AI29" s="11"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
       <c r="AQ29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR29" s="11"/>
     </row>
-    <row r="30" spans="1:44" outlineLevel="1">
+    <row r="30" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2">
-        <v>41577</v>
+        <v>41562</v>
       </c>
       <c r="F30" s="2">
         <v>41577</v>
@@ -2162,35 +2170,59 @@
       <c r="X30" s="11"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="9"/>
-      <c r="AB30" s="11"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="9"/>
-      <c r="AI30" s="11"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
+      <c r="AB30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ30" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR30" s="11"/>
     </row>
-    <row r="31" spans="1:44" outlineLevel="1">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2">
-        <v>41562</v>
-      </c>
-      <c r="F31" s="2">
-        <v>41577</v>
-      </c>
+    <row r="31" spans="1:44" customFormat="1">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="J31" s="11"/>
       <c r="K31" s="7"/>
       <c r="L31" s="9"/>
@@ -2202,258 +2234,197 @@
       <c r="X31" s="11"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="9"/>
-      <c r="AB31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ31" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB31" s="11"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="9"/>
+      <c r="AI31" s="11"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
       <c r="AR31" s="11"/>
     </row>
-    <row r="32" spans="1:44">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="9"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="9"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="9"/>
-      <c r="AB32" s="11"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="9"/>
-      <c r="AI32" s="11"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
+    <row r="32" spans="1:44" customFormat="1">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2">
+        <v>41544</v>
+      </c>
+      <c r="F32" s="2">
+        <v>41577</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>59</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T32" t="s">
+        <v>59</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ32" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AR32" s="11"/>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" customFormat="1">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2">
-        <v>41544</v>
+        <v>41577</v>
       </c>
       <c r="F33" s="2">
         <v>41577</v>
       </c>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N33" t="s">
-        <v>60</v>
-      </c>
-      <c r="O33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P33" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>60</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T33" t="s">
-        <v>60</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP33" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="9"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="9"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="9"/>
+      <c r="AB33" s="11"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="9"/>
+      <c r="AI33" s="11"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
       <c r="AQ33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR33" s="11"/>
     </row>
-    <row r="34" spans="1:44">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2">
-        <v>41577</v>
-      </c>
-      <c r="F34" s="2">
-        <v>41577</v>
-      </c>
+    <row r="34" spans="1:44" customFormat="1">
       <c r="J34" s="11"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="9"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="9"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="9"/>
-      <c r="AB34" s="11"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="9"/>
-      <c r="AI34" s="11"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR34" s="11"/>
-    </row>
-    <row r="35" spans="1:44">
-      <c r="J35" s="11"/>
-    </row>
+    </row>
+    <row r="35" spans="1:44" customFormat="1"/>
+    <row r="36" spans="1:44" customFormat="1"/>
+    <row r="37" spans="1:44" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:AR1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:AQ34">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="J3:AQ33">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"m"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2466,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2479,57 +2450,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="74">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -267,10 +267,16 @@
     <t>Marc, Ralf, Katrin, Johannes</t>
   </si>
   <si>
-    <t>ready4review</t>
-  </si>
-  <si>
     <t>in Gruppe abgestimmt</t>
+  </si>
+  <si>
+    <t>Pflichtenheft erstellen</t>
+  </si>
+  <si>
+    <t>Review Gruppe</t>
+  </si>
+  <si>
+    <t>Anforderungen und deren Lösungen, inkl. Aufwandsschätzung</t>
   </si>
 </sst>
 </file>
@@ -695,23 +701,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR37"/>
+  <dimension ref="A1:AR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.625" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="8" width="39.75" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="9" width="64.125" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="10" max="10" width="3.125" customWidth="1" collapsed="1"/>
-    <col min="11" max="44" width="3.125" customWidth="1"/>
+    <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="39.75" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="64.125" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="44" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -951,14 +956,14 @@
       <c r="F4" s="2">
         <v>41551</v>
       </c>
-      <c r="G4" t="s">
-        <v>70</v>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>59</v>
@@ -1007,8 +1012,8 @@
       <c r="F5" s="2">
         <v>41551</v>
       </c>
-      <c r="G5" t="s">
-        <v>48</v>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -1355,7 +1360,28 @@
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:44" customFormat="1">
+    <row r="13" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F13" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="7"/>
       <c r="L13" s="9"/>
@@ -1363,7 +1389,9 @@
       <c r="S13" s="9"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="W13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="9"/>
@@ -1379,21 +1407,6 @@
       <c r="AR13" s="11"/>
     </row>
     <row r="14" spans="1:44" customFormat="1">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2">
-        <v>41557</v>
-      </c>
-      <c r="F14" s="2">
-        <v>41557</v>
-      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="7"/>
       <c r="L14" s="9"/>
@@ -1401,9 +1414,7 @@
       <c r="S14" s="9"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="9"/>
@@ -1423,7 +1434,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1433,9 +1444,6 @@
       </c>
       <c r="F15" s="2">
         <v>41557</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="7"/>
@@ -1462,6 +1470,24 @@
       <c r="AR15" s="11"/>
     </row>
     <row r="16" spans="1:44" customFormat="1">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F16" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="7"/>
       <c r="L16" s="9"/>
@@ -1469,7 +1495,9 @@
       <c r="S16" s="9"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="W16" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="9"/>
@@ -1484,25 +1512,7 @@
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:44" customFormat="1" outlineLevel="1">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2">
-        <v>41557</v>
-      </c>
-      <c r="F17" s="2">
-        <v>41557</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
+    <row r="17" spans="1:44" customFormat="1">
       <c r="J17" s="11"/>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -1510,9 +1520,7 @@
       <c r="S17" s="9"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="9"/>
@@ -1532,7 +1540,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1541,7 +1549,10 @@
         <v>41557</v>
       </c>
       <c r="F18" s="2">
-        <v>41562</v>
+        <v>41557</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="7"/>
@@ -1553,21 +1564,10 @@
       <c r="W18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="9"/>
+      <c r="AB18" s="11"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="9"/>
       <c r="AI18" s="11"/>
@@ -1583,10 +1583,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2">
         <v>41557</v>
@@ -1634,10 +1634,10 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2">
         <v>41557</v>
@@ -1685,10 +1685,10 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
         <v>41557</v>
@@ -1736,10 +1736,10 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2">
         <v>41557</v>
@@ -1787,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1838,13 +1838,13 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="2">
-        <v>41562</v>
+        <v>41557</v>
       </c>
       <c r="F24" s="2">
         <v>41562</v>
@@ -1856,12 +1856,23 @@
       <c r="S24" s="9"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="9"/>
+      <c r="W24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>59</v>
+      </c>
       <c r="AB24" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="9"/>
@@ -1878,16 +1889,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="2">
         <v>41562</v>
       </c>
       <c r="F25" s="2">
-        <v>41569</v>
+        <v>41562</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="7"/>
@@ -1901,23 +1912,10 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="9"/>
       <c r="AB25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG25" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="9"/>
       <c r="AI25" s="11"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="9"/>
@@ -1926,7 +1924,22 @@
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
     </row>
-    <row r="26" spans="1:44" customFormat="1">
+    <row r="26" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F26" s="2">
+        <v>41569</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="7"/>
       <c r="L26" s="9"/>
@@ -1938,9 +1951,24 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="9"/>
-      <c r="AB26" s="11"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="9"/>
+      <c r="AB26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="AI26" s="11"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="9"/>
@@ -1949,22 +1977,7 @@
       <c r="AQ26" s="11"/>
       <c r="AR26" s="11"/>
     </row>
-    <row r="27" spans="1:44" customFormat="1" outlineLevel="1">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2">
-        <v>41562</v>
-      </c>
-      <c r="F27" s="2">
-        <v>41577</v>
-      </c>
+    <row r="27" spans="1:44" customFormat="1">
       <c r="J27" s="11"/>
       <c r="K27" s="7"/>
       <c r="L27" s="9"/>
@@ -1976,54 +1989,15 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="9"/>
-      <c r="AB27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ27" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB27" s="11"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="9"/>
+      <c r="AI27" s="11"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
       <c r="AR27" s="11"/>
     </row>
     <row r="28" spans="1:44" customFormat="1" outlineLevel="1">
@@ -2031,7 +2005,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -2108,13 +2082,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>41577</v>
+        <v>41562</v>
       </c>
       <c r="F29" s="2">
         <v>41577</v>
@@ -2130,14 +2104,51 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="9"/>
-      <c r="AB29" s="11"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="9"/>
-      <c r="AI29" s="11"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
+      <c r="AB29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP29" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ29" s="11" t="s">
         <v>59</v>
       </c>
@@ -2148,13 +2159,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2">
-        <v>41562</v>
+        <v>41577</v>
       </c>
       <c r="F30" s="2">
         <v>41577</v>
@@ -2170,59 +2181,35 @@
       <c r="X30" s="11"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="9"/>
-      <c r="AB30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP30" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB30" s="11"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="9"/>
+      <c r="AI30" s="11"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
       <c r="AQ30" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR30" s="11"/>
     </row>
-    <row r="31" spans="1:44" customFormat="1">
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+    <row r="31" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F31" s="2">
+        <v>41577</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="7"/>
       <c r="L31" s="9"/>
@@ -2234,138 +2221,79 @@
       <c r="X31" s="11"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="9"/>
-      <c r="AB31" s="11"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="9"/>
-      <c r="AI31" s="11"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AQ31" s="11"/>
+      <c r="AB31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AR31" s="11"/>
     </row>
     <row r="32" spans="1:44" customFormat="1">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2">
-        <v>41544</v>
-      </c>
-      <c r="F32" s="2">
-        <v>41577</v>
-      </c>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" t="s">
-        <v>59</v>
-      </c>
-      <c r="O32" t="s">
-        <v>59</v>
-      </c>
-      <c r="P32" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>59</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T32" t="s">
-        <v>59</v>
-      </c>
-      <c r="U32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="W32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ32" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="9"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="9"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="9"/>
+      <c r="AB32" s="11"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="9"/>
+      <c r="AI32" s="11"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
       <c r="AR32" s="11"/>
     </row>
     <row r="33" spans="1:44" customFormat="1">
@@ -2373,53 +2301,176 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2">
-        <v>41577</v>
+        <v>41544</v>
       </c>
       <c r="F33" s="2">
         <v>41577</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="9"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="9"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="9"/>
-      <c r="AB33" s="11"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="9"/>
-      <c r="AI33" s="11"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>59</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T33" t="s">
+        <v>59</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR33" s="11"/>
+    </row>
+    <row r="34" spans="1:44" customFormat="1">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2">
+        <v>41577</v>
+      </c>
+      <c r="F34" s="2">
+        <v>41577</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="9"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="9"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="9"/>
+      <c r="AB34" s="11"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="9"/>
+      <c r="AI34" s="11"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="11"/>
-    </row>
-    <row r="34" spans="1:44" customFormat="1">
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:44" customFormat="1"/>
+      <c r="AR34" s="11"/>
+    </row>
+    <row r="35" spans="1:44" customFormat="1">
+      <c r="J35" s="11"/>
+    </row>
     <row r="36" spans="1:44" customFormat="1"/>
     <row r="37" spans="1:44" customFormat="1"/>
+    <row r="38" spans="1:44" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:AR1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:AQ33">
+  <conditionalFormatting sqref="J3:AQ34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="78">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Design Guide erstellen</t>
   </si>
   <si>
-    <t>Aktivitätsdiagram erstellen</t>
-  </si>
-  <si>
     <t>Logisches DB- Modell erstellen</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>Abstimmung mit Auftraggeber</t>
   </si>
   <si>
-    <t>Abgabe detaillierte Aufwandsschätzung (nach Abstimmung bzgl. Design Guide)</t>
-  </si>
-  <si>
     <t>Beschreibung</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Klassenmodell erstellen</t>
-  </si>
-  <si>
     <t>Datenbank</t>
   </si>
   <si>
@@ -277,6 +268,27 @@
   </si>
   <si>
     <t>Anforderungen und deren Lösungen, inkl. Aufwandsschätzung</t>
+  </si>
+  <si>
+    <t>fachliches Klassenmodell erstellen</t>
+  </si>
+  <si>
+    <t>Rework</t>
+  </si>
+  <si>
+    <t>technisches Klassenmodell - Modelschicht</t>
+  </si>
+  <si>
+    <t>technisches Klassenmodell - Controllerschicht</t>
+  </si>
+  <si>
+    <t>technisches Klassenmodell - GUI-Schicht</t>
+  </si>
+  <si>
+    <t>Review durch TPL Angelos</t>
+  </si>
+  <si>
+    <t>Abgabe Pflichtenheft inkl. detaillierte Aufwandsschätzung</t>
   </si>
 </sst>
 </file>
@@ -384,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -400,6 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -701,15 +714,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR38"/>
+  <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="10.5" customWidth="1" outlineLevel="1"/>
@@ -721,13 +735,13 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="J1" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -762,31 +776,31 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5">
         <v>41544</v>
@@ -896,13 +910,16 @@
     </row>
     <row r="3" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>41544</v>
@@ -911,13 +928,13 @@
         <v>41544</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="9"/>
@@ -942,13 +959,16 @@
     </row>
     <row r="4" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>41544</v>
@@ -957,25 +977,25 @@
         <v>41551</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="9"/>
@@ -998,13 +1018,13 @@
     </row>
     <row r="5" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>41544</v>
@@ -1013,31 +1033,31 @@
         <v>41551</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="9"/>
@@ -1085,30 +1105,36 @@
     </row>
     <row r="7" spans="1:44" customFormat="1">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>41555</v>
       </c>
       <c r="F7" s="2">
         <v>41555</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="7"/>
       <c r="L7" s="9"/>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="9"/>
       <c r="U7" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
@@ -1151,13 +1177,16 @@
     </row>
     <row r="9" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="E9" s="2">
         <v>41555</v>
@@ -1166,46 +1195,46 @@
         <v>41557</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="7"/>
       <c r="L9" s="9"/>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="7"/>
@@ -1223,13 +1252,13 @@
     </row>
     <row r="10" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>41555</v>
@@ -1237,8 +1266,11 @@
       <c r="F10" s="2">
         <v>41556</v>
       </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="7"/>
@@ -1246,10 +1278,10 @@
       <c r="R10" s="7"/>
       <c r="S10" s="9"/>
       <c r="U10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -1268,37 +1300,31 @@
     </row>
     <row r="11" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
         <v>41555</v>
       </c>
       <c r="F11" s="2">
-        <v>41557</v>
+        <v>41556</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="7"/>
       <c r="L11" s="9"/>
       <c r="R11" s="7"/>
       <c r="S11" s="9"/>
-      <c r="U11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="9"/>
@@ -1315,37 +1341,31 @@
     </row>
     <row r="12" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
         <v>41555</v>
       </c>
       <c r="F12" s="2">
-        <v>41557</v>
+        <v>41556</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="7"/>
       <c r="L12" s="9"/>
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
-      <c r="U12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="9"/>
@@ -1362,35 +1382,39 @@
     </row>
     <row r="13" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
-        <v>41557</v>
+        <v>41555</v>
       </c>
       <c r="F13" s="2">
         <v>41557</v>
       </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="7"/>
       <c r="L13" s="9"/>
       <c r="R13" s="7"/>
       <c r="S13" s="9"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
+      <c r="U13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="7"/>
@@ -1406,15 +1430,39 @@
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:44" customFormat="1">
+    <row r="14" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>41555</v>
+      </c>
+      <c r="F14" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="7"/>
       <c r="L14" s="9"/>
       <c r="R14" s="7"/>
       <c r="S14" s="9"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="U14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="9"/>
@@ -1429,21 +1477,27 @@
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:44" customFormat="1">
+    <row r="15" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2">
         <v>41557</v>
       </c>
       <c r="F15" s="2">
         <v>41557</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="7"/>
@@ -1453,7 +1507,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="7"/>
@@ -1470,24 +1524,6 @@
       <c r="AR15" s="11"/>
     </row>
     <row r="16" spans="1:44" customFormat="1">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2">
-        <v>41557</v>
-      </c>
-      <c r="F16" s="2">
-        <v>41557</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="7"/>
       <c r="L16" s="9"/>
@@ -1495,9 +1531,7 @@
       <c r="S16" s="9"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="9"/>
@@ -1513,6 +1547,24 @@
       <c r="AR16" s="11"/>
     </row>
     <row r="17" spans="1:44" customFormat="1">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2">
+        <v>41557</v>
+      </c>
+      <c r="F17" s="2">
+        <v>41557</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -1520,7 +1572,9 @@
       <c r="S17" s="9"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="9"/>
@@ -1535,25 +1589,7 @@
       <c r="AQ17" s="11"/>
       <c r="AR17" s="11"/>
     </row>
-    <row r="18" spans="1:44" customFormat="1" outlineLevel="1">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2">
-        <v>41557</v>
-      </c>
-      <c r="F18" s="2">
-        <v>41557</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
+    <row r="18" spans="1:44" customFormat="1">
       <c r="J18" s="11"/>
       <c r="K18" s="7"/>
       <c r="L18" s="9"/>
@@ -1561,9 +1597,7 @@
       <c r="S18" s="9"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="9"/>
@@ -1580,19 +1614,22 @@
     </row>
     <row r="19" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>41557</v>
       </c>
       <c r="F19" s="2">
-        <v>41562</v>
+        <v>41557</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="7"/>
@@ -1602,23 +1639,12 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="9"/>
+      <c r="AB19" s="11"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="9"/>
       <c r="AI19" s="11"/>
@@ -1631,13 +1657,13 @@
     </row>
     <row r="20" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
         <v>41557</v>
@@ -1653,22 +1679,22 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="9"/>
@@ -1682,13 +1708,13 @@
     </row>
     <row r="21" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2">
         <v>41557</v>
@@ -1704,22 +1730,22 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF21" s="7"/>
       <c r="AG21" s="9"/>
@@ -1733,13 +1759,13 @@
     </row>
     <row r="22" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2">
         <v>41557</v>
@@ -1755,22 +1781,22 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="9"/>
@@ -1784,10 +1810,10 @@
     </row>
     <row r="23" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1806,22 +1832,22 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="9"/>
@@ -1835,13 +1861,13 @@
     </row>
     <row r="24" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2">
         <v>41557</v>
@@ -1857,22 +1883,22 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="9"/>
@@ -1886,16 +1912,16 @@
     </row>
     <row r="25" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2">
-        <v>41562</v>
+        <v>41557</v>
       </c>
       <c r="F25" s="2">
         <v>41562</v>
@@ -1907,12 +1933,23 @@
       <c r="S25" s="9"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="9"/>
+      <c r="W25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>57</v>
+      </c>
       <c r="AB25" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="9"/>
@@ -1926,19 +1963,19 @@
     </row>
     <row r="26" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2">
         <v>41562</v>
       </c>
       <c r="F26" s="2">
-        <v>41569</v>
+        <v>41562</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="7"/>
@@ -1952,23 +1989,10 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="9"/>
       <c r="AB26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG26" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="9"/>
       <c r="AI26" s="11"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="9"/>
@@ -1977,7 +2001,22 @@
       <c r="AQ26" s="11"/>
       <c r="AR26" s="11"/>
     </row>
-    <row r="27" spans="1:44" customFormat="1">
+    <row r="27" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F27" s="2">
+        <v>41569</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="7"/>
       <c r="L27" s="9"/>
@@ -1989,9 +2028,24 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="9"/>
-      <c r="AB27" s="11"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="9"/>
+      <c r="AB27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AI27" s="11"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="9"/>
@@ -2000,22 +2054,7 @@
       <c r="AQ27" s="11"/>
       <c r="AR27" s="11"/>
     </row>
-    <row r="28" spans="1:44" customFormat="1" outlineLevel="1">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2">
-        <v>41562</v>
-      </c>
-      <c r="F28" s="2">
-        <v>41577</v>
-      </c>
+    <row r="28" spans="1:44" customFormat="1">
       <c r="J28" s="11"/>
       <c r="K28" s="7"/>
       <c r="L28" s="9"/>
@@ -2027,65 +2066,26 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="9"/>
-      <c r="AB28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ28" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB28" s="11"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="9"/>
+      <c r="AI28" s="11"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
       <c r="AR28" s="11"/>
     </row>
     <row r="29" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="2">
         <v>41562</v>
@@ -2105,67 +2105,67 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="9"/>
       <c r="AB29" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AC29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AE29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF29" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AH29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AI29" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AJ29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AK29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AM29" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN29" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AP29" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AQ29" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AR29" s="11"/>
     </row>
     <row r="30" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2">
-        <v>41577</v>
+        <v>41562</v>
       </c>
       <c r="F30" s="2">
         <v>41577</v>
@@ -2181,31 +2181,68 @@
       <c r="X30" s="11"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="9"/>
-      <c r="AB30" s="11"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="9"/>
-      <c r="AI30" s="11"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
+      <c r="AB30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ30" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AR30" s="11"/>
     </row>
     <row r="31" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2">
-        <v>41562</v>
+        <v>41577</v>
       </c>
       <c r="F31" s="2">
         <v>41577</v>
@@ -2221,59 +2258,35 @@
       <c r="X31" s="11"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="9"/>
-      <c r="AB31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP31" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB31" s="11"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="9"/>
+      <c r="AI31" s="11"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
       <c r="AQ31" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR31" s="11"/>
     </row>
-    <row r="32" spans="1:44" customFormat="1">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+    <row r="32" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F32" s="2">
+        <v>41577</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="7"/>
       <c r="L32" s="9"/>
@@ -2285,192 +2298,257 @@
       <c r="X32" s="11"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="9"/>
-      <c r="AB32" s="11"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="9"/>
-      <c r="AI32" s="11"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
+      <c r="AB32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ32" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="AR32" s="11"/>
     </row>
     <row r="33" spans="1:44" customFormat="1">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2">
-        <v>41544</v>
-      </c>
-      <c r="F33" s="2">
-        <v>41577</v>
-      </c>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" t="s">
-        <v>59</v>
-      </c>
-      <c r="N33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O33" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>59</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T33" t="s">
-        <v>59</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ33" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="9"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="9"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="9"/>
+      <c r="AB33" s="11"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="9"/>
+      <c r="AI33" s="11"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
       <c r="AR33" s="11"/>
     </row>
     <row r="34" spans="1:44" customFormat="1">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2">
-        <v>41577</v>
+        <v>41544</v>
       </c>
       <c r="F34" s="2">
         <v>41577</v>
       </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="9"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="9"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="9"/>
-      <c r="AB34" s="11"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="9"/>
-      <c r="AI34" s="11"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>57</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP34" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ34" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR34" s="11"/>
     </row>
     <row r="35" spans="1:44" customFormat="1">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2">
+        <v>41577</v>
+      </c>
+      <c r="F35" s="2">
+        <v>41577</v>
+      </c>
       <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:44" customFormat="1"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="9"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="9"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="9"/>
+      <c r="AB35" s="11"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="9"/>
+      <c r="AI35" s="11"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR35" s="11"/>
+    </row>
+    <row r="36" spans="1:44" customFormat="1">
+      <c r="J36" s="11"/>
+    </row>
     <row r="37" spans="1:44" customFormat="1"/>
     <row r="38" spans="1:44" customFormat="1"/>
+    <row r="39" spans="1:44" customFormat="1"/>
+    <row r="40" spans="1:44" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:AR1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:AQ34">
+  <conditionalFormatting sqref="J3:AQ35">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -2501,57 +2579,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -26,7 +26,7 @@
     <author>Johannes Haag</author>
   </authors>
   <commentList>
-    <comment ref="AH2" authorId="0" shapeId="0">
+    <comment ref="AG2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="73">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Review in Gruppe, Diskussion mit Auftraggeber</t>
   </si>
   <si>
-    <t>Review durch Gruppe</t>
-  </si>
-  <si>
     <t>Review durch Fachliche Implementierung</t>
   </si>
   <si>
@@ -213,12 +210,6 @@
     <t>Abstimmung mit Auftraggeber</t>
   </si>
   <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Erforderliche Unterlagen/Ergebnisse vollständig, korrekt und in GIT abgelegt?</t>
-  </si>
-  <si>
     <t>September</t>
   </si>
   <si>
@@ -258,18 +249,12 @@
     <t>Marc, Ralf, Katrin, Johannes</t>
   </si>
   <si>
-    <t>in Gruppe abgestimmt</t>
-  </si>
-  <si>
     <t>Pflichtenheft erstellen</t>
   </si>
   <si>
     <t>Review Gruppe</t>
   </si>
   <si>
-    <t>Anforderungen und deren Lösungen, inkl. Aufwandsschätzung</t>
-  </si>
-  <si>
     <t>fachliches Klassenmodell erstellen</t>
   </si>
   <si>
@@ -279,9 +264,6 @@
     <t>technisches Klassenmodell - Modelschicht</t>
   </si>
   <si>
-    <t>technisches Klassenmodell - Controllerschicht</t>
-  </si>
-  <si>
     <t>technisches Klassenmodell - GUI-Schicht</t>
   </si>
   <si>
@@ -289,6 +271,9 @@
   </si>
   <si>
     <t>Abgabe Pflichtenheft inkl. detaillierte Aufwandsschätzung</t>
+  </si>
+  <si>
+    <t>Anforderungskatalog erstellen</t>
   </si>
 </sst>
 </file>
@@ -358,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -381,26 +366,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -409,10 +382,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -714,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR40"/>
+  <dimension ref="A1:AR41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -729,20 +702,20 @@
     <col min="6" max="6" width="10.5" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.625" customWidth="1" outlineLevel="2"/>
     <col min="8" max="8" width="39.75" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="9" width="64.125" customWidth="1" outlineLevel="2"/>
-    <col min="10" max="44" width="3.125" customWidth="1"/>
+    <col min="9" max="43" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="J1" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="I1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="M1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
@@ -772,7 +745,6 @@
       <c r="AO1" s="12"/>
       <c r="AP1" s="12"/>
       <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
@@ -788,123 +760,120 @@
         <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>52</v>
+      <c r="I2" s="4">
+        <v>41544</v>
       </c>
       <c r="J2" s="5">
-        <v>41544</v>
-      </c>
-      <c r="K2" s="6">
         <v>41545</v>
       </c>
-      <c r="L2" s="8">
+      <c r="K2" s="7">
         <v>41546</v>
       </c>
-      <c r="M2" s="4">
+      <c r="L2" s="3">
         <v>41547</v>
       </c>
-      <c r="N2" s="4">
+      <c r="M2" s="3">
         <v>41548</v>
       </c>
-      <c r="O2" s="4">
+      <c r="N2" s="3">
         <v>41549</v>
       </c>
-      <c r="P2" s="4">
+      <c r="O2" s="3">
         <v>41550</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="P2" s="3">
         <v>41551</v>
       </c>
-      <c r="R2" s="6">
+      <c r="Q2" s="5">
         <v>41552</v>
       </c>
-      <c r="S2" s="8">
+      <c r="R2" s="7">
         <v>41553</v>
       </c>
+      <c r="S2" s="3">
+        <v>41554</v>
+      </c>
       <c r="T2" s="4">
-        <v>41554</v>
-      </c>
-      <c r="U2" s="5">
         <v>41555</v>
       </c>
-      <c r="V2" s="5">
+      <c r="U2" s="4">
         <v>41556</v>
       </c>
-      <c r="W2" s="5">
+      <c r="V2" s="4">
         <v>41557</v>
       </c>
+      <c r="W2" s="4">
+        <v>41558</v>
+      </c>
       <c r="X2" s="5">
-        <v>41558</v>
-      </c>
-      <c r="Y2" s="6">
         <v>41559</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Y2" s="7">
         <v>41560</v>
       </c>
+      <c r="Z2" s="3">
+        <v>41561</v>
+      </c>
       <c r="AA2" s="4">
-        <v>41561</v>
-      </c>
-      <c r="AB2" s="5">
         <v>41562</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AB2" s="3">
         <v>41563</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AC2" s="3">
         <v>41564</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AD2" s="3">
         <v>41565</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AE2" s="5">
         <v>41566</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AF2" s="7">
         <v>41567</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AG2" s="9">
         <v>41568</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AH2" s="4">
         <v>41569</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AI2" s="3">
         <v>41570</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AJ2" s="3">
         <v>41571</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AK2" s="3">
         <v>41572</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AL2" s="5">
         <v>41573</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AM2" s="7">
         <v>41574</v>
       </c>
-      <c r="AO2" s="5">
+      <c r="AN2" s="4">
         <v>41575</v>
       </c>
+      <c r="AO2" s="3">
+        <v>41576</v>
+      </c>
       <c r="AP2" s="4">
-        <v>41576</v>
-      </c>
-      <c r="AQ2" s="5">
         <v>41577</v>
       </c>
-      <c r="AR2" s="5">
+      <c r="AQ2" s="4">
         <v>41578</v>
       </c>
     </row>
@@ -928,385 +897,413 @@
         <v>41544</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="9"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="9"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="9"/>
-      <c r="AB3" s="11"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="9"/>
-      <c r="AI3" s="11"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
+      <c r="I3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="8"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="8"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="8"/>
+      <c r="AA3" s="10"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="8"/>
+      <c r="AH3" s="10"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
     </row>
     <row r="4" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>41544</v>
       </c>
       <c r="F4" s="2">
-        <v>41551</v>
+        <v>41554</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="9"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="9"/>
-      <c r="AB4" s="11"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="9"/>
-      <c r="AI4" s="11"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="8"/>
+      <c r="AA4" s="10"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="8"/>
+      <c r="AH4" s="10"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
     </row>
     <row r="5" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
       </c>
       <c r="E5" s="2">
         <v>41544</v>
       </c>
       <c r="F5" s="2">
-        <v>41551</v>
+        <v>41554</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>57</v>
+      <c r="I5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="9"/>
-      <c r="AB5" s="11"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="9"/>
-      <c r="AI5" s="11"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="11"/>
-    </row>
-    <row r="6" spans="1:44" customFormat="1">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="9"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="9"/>
-      <c r="AB6" s="11"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="9"/>
-      <c r="AI6" s="11"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="8"/>
+      <c r="AA5" s="10"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="8"/>
+      <c r="AH5" s="10"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+    </row>
+    <row r="6" spans="1:44" customFormat="1" outlineLevel="1">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>41544</v>
+      </c>
+      <c r="F6" s="2">
+        <v>41554</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="8"/>
+      <c r="AA6" s="10"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="8"/>
+      <c r="AH6" s="10"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
     </row>
     <row r="7" spans="1:44" customFormat="1">
-      <c r="A7" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="8"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="8"/>
+      <c r="AA7" s="10"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="8"/>
+      <c r="AH7" s="10"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+    </row>
+    <row r="8" spans="1:44" customFormat="1">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>41555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>41555</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="9"/>
-      <c r="Q7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="U7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="9"/>
-      <c r="AB7" s="11"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="9"/>
-      <c r="AI7" s="11"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-    </row>
-    <row r="8" spans="1:44" customFormat="1">
-      <c r="J8" s="11"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="9"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="9"/>
-      <c r="AB8" s="11"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="9"/>
-      <c r="AI8" s="11"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-    </row>
-    <row r="9" spans="1:44" customFormat="1" outlineLevel="1">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>41555</v>
-      </c>
-      <c r="F9" s="2">
-        <v>41557</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="9"/>
-      <c r="M9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="9"/>
-      <c r="AB9" s="11"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="9"/>
-      <c r="AI9" s="11"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
+      <c r="T8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="8"/>
+      <c r="AA8" s="10"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="8"/>
+      <c r="AH8" s="10"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+    </row>
+    <row r="9" spans="1:44" customFormat="1">
+      <c r="I9" s="10"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="8"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="8"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="8"/>
+      <c r="AA9" s="10"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="8"/>
+      <c r="AH9" s="10"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
     </row>
     <row r="10" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
       <c r="E10" s="2">
         <v>41555</v>
       </c>
       <c r="F10" s="2">
-        <v>41556</v>
+        <v>41557</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="9"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="U10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="9"/>
-      <c r="AB10" s="11"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="9"/>
-      <c r="AI10" s="11"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="8"/>
+      <c r="T10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="8"/>
+      <c r="AA10" s="10"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="8"/>
+      <c r="AH10" s="10"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
     </row>
     <row r="11" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>41555</v>
@@ -1314,37 +1311,44 @@
       <c r="F11" s="2">
         <v>41556</v>
       </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
       <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="9"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="9"/>
-      <c r="AB11" s="11"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="9"/>
-      <c r="AI11" s="11"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="8"/>
+      <c r="T11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="8"/>
+      <c r="AA11" s="10"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="8"/>
+      <c r="AH11" s="10"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
     </row>
     <row r="12" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1355,30 +1359,33 @@
       <c r="F12" s="2">
         <v>41556</v>
       </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="9"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="9"/>
-      <c r="AB12" s="11"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="9"/>
-      <c r="AI12" s="11"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="8"/>
+      <c r="AA12" s="10"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="8"/>
+      <c r="AH12" s="10"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
     </row>
     <row r="13" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A13" t="s">
@@ -1397,38 +1404,38 @@
         <v>41557</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="9"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="U13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="9"/>
-      <c r="AB13" s="11"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="9"/>
-      <c r="AI13" s="11"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="8"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="8"/>
+      <c r="T13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" s="10"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="8"/>
+      <c r="AA13" s="10"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="8"/>
+      <c r="AH13" s="10"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
     </row>
     <row r="14" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A14" t="s">
@@ -1447,45 +1454,45 @@
         <v>41557</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="9"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="U14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="9"/>
-      <c r="AB14" s="11"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="9"/>
-      <c r="AI14" s="11"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="8"/>
+      <c r="T14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="10"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="8"/>
+      <c r="AA14" s="10"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="8"/>
+      <c r="AH14" s="10"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
     </row>
     <row r="15" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2">
         <v>41557</v>
@@ -1494,67 +1501,64 @@
         <v>41557</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="9"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="9"/>
-      <c r="AB15" s="11"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="9"/>
-      <c r="AI15" s="11"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="8"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" s="10"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="8"/>
+      <c r="AA15" s="10"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="8"/>
+      <c r="AH15" s="10"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
     </row>
     <row r="16" spans="1:44" customFormat="1">
-      <c r="J16" s="11"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="9"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="9"/>
-      <c r="AB16" s="11"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="9"/>
-      <c r="AI16" s="11"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="8"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="8"/>
+      <c r="AA16" s="10"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="8"/>
+      <c r="AH16" s="10"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
     </row>
     <row r="17" spans="1:44" customFormat="1">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2">
         <v>41557</v>
@@ -1563,54 +1567,54 @@
         <v>41557</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="9"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="9"/>
-      <c r="AB17" s="11"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="9"/>
-      <c r="AI17" s="11"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="8"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" s="10"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="8"/>
+      <c r="AA17" s="10"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="8"/>
+      <c r="AH17" s="10"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
     </row>
     <row r="18" spans="1:44" customFormat="1">
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="9"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="9"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="9"/>
-      <c r="AB18" s="11"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="9"/>
-      <c r="AI18" s="11"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="8"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="8"/>
+      <c r="AA18" s="10"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="8"/>
+      <c r="AH18" s="10"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
     </row>
     <row r="19" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A19" t="s">
@@ -1629,31 +1633,31 @@
         <v>41557</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="9"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="9"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="9"/>
-      <c r="AB19" s="11"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="9"/>
-      <c r="AI19" s="11"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="8"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="10"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="8"/>
+      <c r="AA19" s="10"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="8"/>
+      <c r="AH19" s="10"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
     </row>
     <row r="20" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A20" t="s">
@@ -1671,40 +1675,40 @@
       <c r="F20" s="2">
         <v>41562</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="9"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="9"/>
-      <c r="AI20" s="11"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="8"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="8"/>
+      <c r="AH20" s="10"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
     </row>
     <row r="21" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A21" t="s">
@@ -1722,40 +1726,40 @@
       <c r="F21" s="2">
         <v>41562</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="9"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="9"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="9"/>
-      <c r="AI21" s="11"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="8"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="8"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="8"/>
+      <c r="AH21" s="10"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
     </row>
     <row r="22" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A22" t="s">
@@ -1773,40 +1777,40 @@
       <c r="F22" s="2">
         <v>41562</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="9"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="9"/>
-      <c r="AI22" s="11"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="8"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="8"/>
+      <c r="AH22" s="10"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
     </row>
     <row r="23" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A23" t="s">
@@ -1824,40 +1828,40 @@
       <c r="F23" s="2">
         <v>41562</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="9"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="9"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="9"/>
-      <c r="AI23" s="11"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="8"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="8"/>
+      <c r="AH23" s="10"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
     </row>
     <row r="24" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A24" t="s">
@@ -1875,40 +1879,40 @@
       <c r="F24" s="2">
         <v>41562</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="9"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="9"/>
-      <c r="AI24" s="11"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="8"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="8"/>
+      <c r="AH24" s="10"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
     </row>
     <row r="25" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A25" t="s">
@@ -1926,40 +1930,40 @@
       <c r="F25" s="2">
         <v>41562</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="9"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="9"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="9"/>
-      <c r="AI25" s="11"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="8"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="8"/>
+      <c r="AH25" s="10"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
     </row>
     <row r="26" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A26" t="s">
@@ -1977,29 +1981,29 @@
       <c r="F26" s="2">
         <v>41562</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="9"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="9"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="9"/>
-      <c r="AB26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="9"/>
-      <c r="AI26" s="11"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="8"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="8"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="8"/>
+      <c r="AA26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="8"/>
+      <c r="AH26" s="10"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
     </row>
     <row r="27" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A27" t="s">
@@ -2017,65 +2021,65 @@
       <c r="F27" s="2">
         <v>41569</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="9"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="9"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="9"/>
-      <c r="AB27" s="11" t="s">
-        <v>57</v>
+      <c r="I27" s="10"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="8"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="8"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="8"/>
+      <c r="AA27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>54</v>
       </c>
       <c r="AC27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AD27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI27" s="11"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH27" s="10"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
     </row>
     <row r="28" spans="1:44" customFormat="1">
-      <c r="J28" s="11"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="9"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="9"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="9"/>
-      <c r="AB28" s="11"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="9"/>
-      <c r="AI28" s="11"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="11"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="8"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="8"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="8"/>
+      <c r="AA28" s="10"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="8"/>
+      <c r="AH28" s="10"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
     </row>
     <row r="29" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A29" t="s">
@@ -2093,66 +2097,66 @@
       <c r="F29" s="2">
         <v>41577</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="9"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="9"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="9"/>
-      <c r="AB29" s="11" t="s">
-        <v>57</v>
+      <c r="I29" s="10"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="8"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="8"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="8"/>
+      <c r="AA29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>54</v>
       </c>
       <c r="AC29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AD29" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI29" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>54</v>
       </c>
       <c r="AJ29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AK29" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR29" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="AL29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ29" s="10"/>
     </row>
     <row r="30" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A30" t="s">
@@ -2170,66 +2174,66 @@
       <c r="F30" s="2">
         <v>41577</v>
       </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="9"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="9"/>
-      <c r="AB30" s="11" t="s">
-        <v>57</v>
+      <c r="I30" s="10"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="8"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="8"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="8"/>
+      <c r="AA30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>54</v>
       </c>
       <c r="AC30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AD30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>54</v>
       </c>
       <c r="AJ30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AK30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR30" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ30" s="10"/>
     </row>
     <row r="31" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A31" t="s">
@@ -2247,29 +2251,29 @@
       <c r="F31" s="2">
         <v>41577</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="9"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="9"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="9"/>
-      <c r="AB31" s="11"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="9"/>
-      <c r="AI31" s="11"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AQ31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="8"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="8"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="8"/>
+      <c r="AA31" s="10"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="8"/>
+      <c r="AH31" s="10"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ31" s="10"/>
     </row>
     <row r="32" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A32" t="s">
@@ -2287,101 +2291,101 @@
       <c r="F32" s="2">
         <v>41577</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="9"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="9"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="9"/>
-      <c r="AB32" s="11" t="s">
-        <v>57</v>
+      <c r="I32" s="10"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="8"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="8"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="8"/>
+      <c r="AA32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>54</v>
       </c>
       <c r="AC32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AD32" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI32" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>54</v>
       </c>
       <c r="AJ32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AK32" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ32" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR32" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="AL32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ32" s="10"/>
     </row>
     <row r="33" spans="1:44" customFormat="1">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="9"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="9"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="9"/>
-      <c r="AB33" s="11"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="9"/>
-      <c r="AI33" s="11"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
-      <c r="AQ33" s="11"/>
-      <c r="AR33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="8"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="8"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="8"/>
+      <c r="AA33" s="10"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="8"/>
+      <c r="AH33" s="10"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
     </row>
     <row r="34" spans="1:44" customFormat="1">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2">
         <v>41544</v>
@@ -2389,119 +2393,116 @@
       <c r="F34" s="2">
         <v>41577</v>
       </c>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>57</v>
+      <c r="I34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" t="s">
+        <v>54</v>
       </c>
       <c r="M34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>57</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T34" t="s">
-        <v>57</v>
-      </c>
-      <c r="U34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB34" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S34" t="s">
+        <v>54</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>54</v>
       </c>
       <c r="AC34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AD34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI34" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>54</v>
       </c>
       <c r="AJ34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AK34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR34" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="AL34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ34" s="10"/>
     </row>
     <row r="35" spans="1:44" customFormat="1">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2512,43 +2513,44 @@
       <c r="F35" s="2">
         <v>41577</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="9"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="9"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="9"/>
-      <c r="AB35" s="11"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="9"/>
-      <c r="AI35" s="11"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="9"/>
-      <c r="AO35" s="11"/>
-      <c r="AP35" s="11"/>
-      <c r="AQ35" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="8"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="8"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="8"/>
+      <c r="AA35" s="10"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="8"/>
+      <c r="AH35" s="10"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ35" s="10"/>
     </row>
     <row r="36" spans="1:44" customFormat="1">
-      <c r="J36" s="11"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:44" customFormat="1"/>
     <row r="38" spans="1:44" customFormat="1"/>
     <row r="39" spans="1:44" customFormat="1"/>
     <row r="40" spans="1:44" customFormat="1"/>
+    <row r="41" spans="1:44" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:AR1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:AQ1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:AQ35">
+  <conditionalFormatting sqref="I3:AP35">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -2579,24 +2581,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2607,18 +2609,18 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2626,10 +2628,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="71">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Angelos</t>
   </si>
   <si>
-    <t>offen</t>
-  </si>
-  <si>
     <t>DB erstellen</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>Installer erstellen</t>
-  </si>
-  <si>
-    <t>Lasttest</t>
   </si>
   <si>
     <t>Testdokumentation</t>
@@ -690,8 +684,8 @@
   <dimension ref="A1:AR41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -707,13 +701,13 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="I1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -748,7 +742,7 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -757,19 +751,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4">
         <v>41544</v>
@@ -879,7 +873,7 @@
     </row>
     <row r="3" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -897,13 +891,13 @@
         <v>41544</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="8"/>
@@ -928,10 +922,10 @@
     </row>
     <row r="4" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -946,43 +940,43 @@
         <v>41554</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
@@ -1003,10 +997,10 @@
     </row>
     <row r="5" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1021,43 +1015,43 @@
         <v>41554</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -1078,7 +1072,7 @@
     </row>
     <row r="6" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1093,43 +1087,43 @@
         <v>41554</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -1175,13 +1169,13 @@
     </row>
     <row r="8" spans="1:44" customFormat="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1193,7 +1187,7 @@
         <v>41555</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="6"/>
@@ -1201,7 +1195,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="8"/>
       <c r="T8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -1244,7 +1238,7 @@
     </row>
     <row r="10" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1262,10 +1256,10 @@
         <v>41557</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="6"/>
@@ -1273,13 +1267,13 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="8"/>
       <c r="T10" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="6"/>
@@ -1297,10 +1291,10 @@
     </row>
     <row r="11" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1312,10 +1306,10 @@
         <v>41556</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="6"/>
@@ -1323,10 +1317,10 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="8"/>
       <c r="T11" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
@@ -1345,10 +1339,10 @@
     </row>
     <row r="12" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1360,10 +1354,10 @@
         <v>41556</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="6"/>
@@ -1389,7 +1383,7 @@
     </row>
     <row r="13" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1404,10 +1398,10 @@
         <v>41557</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="6"/>
@@ -1415,13 +1409,13 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="8"/>
       <c r="T13" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="6"/>
@@ -1439,7 +1433,7 @@
     </row>
     <row r="14" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1454,7 +1448,7 @@
         <v>41557</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="6"/>
@@ -1462,13 +1456,13 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="8"/>
       <c r="T14" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="6"/>
@@ -1486,13 +1480,13 @@
     </row>
     <row r="15" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2">
         <v>41557</v>
@@ -1501,7 +1495,7 @@
         <v>41557</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="6"/>
@@ -1511,7 +1505,7 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W15" s="10"/>
       <c r="X15" s="6"/>
@@ -1552,13 +1546,13 @@
     </row>
     <row r="17" spans="1:44" customFormat="1">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2">
         <v>41557</v>
@@ -1567,7 +1561,7 @@
         <v>41557</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="6"/>
@@ -1577,7 +1571,7 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W17" s="10"/>
       <c r="X17" s="6"/>
@@ -1618,10 +1612,10 @@
     </row>
     <row r="19" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1633,7 +1627,7 @@
         <v>41557</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="6"/>
@@ -1643,7 +1637,7 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W19" s="10"/>
       <c r="X19" s="6"/>
@@ -1661,10 +1655,10 @@
     </row>
     <row r="20" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1683,22 +1677,22 @@
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE20" s="6"/>
       <c r="AF20" s="8"/>
@@ -1712,10 +1706,10 @@
     </row>
     <row r="21" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1734,22 +1728,22 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="8"/>
@@ -1763,10 +1757,10 @@
     </row>
     <row r="22" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1785,22 +1779,22 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE22" s="6"/>
       <c r="AF22" s="8"/>
@@ -1814,13 +1808,13 @@
     </row>
     <row r="23" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2">
         <v>41557</v>
@@ -1836,22 +1830,22 @@
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE23" s="6"/>
       <c r="AF23" s="8"/>
@@ -1865,10 +1859,10 @@
     </row>
     <row r="24" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1887,22 +1881,22 @@
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y24" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA24" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE24" s="6"/>
       <c r="AF24" s="8"/>
@@ -1916,10 +1910,10 @@
     </row>
     <row r="25" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1938,22 +1932,22 @@
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE25" s="6"/>
       <c r="AF25" s="8"/>
@@ -1967,10 +1961,10 @@
     </row>
     <row r="26" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1993,7 +1987,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="8"/>
       <c r="AA26" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE26" s="6"/>
       <c r="AF26" s="8"/>
@@ -2007,13 +2001,13 @@
     </row>
     <row r="27" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2">
         <v>41562</v>
@@ -2033,22 +2027,22 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="8"/>
       <c r="AA27" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH27" s="10"/>
       <c r="AL27" s="6"/>
@@ -2083,13 +2077,13 @@
     </row>
     <row r="29" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2">
         <v>41562</v>
@@ -2109,64 +2103,64 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="8"/>
       <c r="AA29" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AI29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AJ29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AL29" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AM29" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AN29" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AO29" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AP29" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AQ29" s="10"/>
     </row>
     <row r="30" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2">
         <v>41562</v>
@@ -2186,67 +2180,67 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="8"/>
       <c r="AA30" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AF30" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AI30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AJ30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AL30" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AM30" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AN30" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AO30" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AQ30" s="10"/>
     </row>
     <row r="31" spans="1:44" customFormat="1" outlineLevel="1">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2">
-        <v>41577</v>
+        <v>41562</v>
       </c>
       <c r="F31" s="2">
         <v>41577</v>
@@ -2262,35 +2256,59 @@
       <c r="W31" s="10"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="8"/>
-      <c r="AA31" s="10"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="8"/>
-      <c r="AH31" s="10"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="10"/>
-      <c r="AO31" s="10"/>
+      <c r="AA31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO31" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="AP31" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AQ31" s="10"/>
     </row>
-    <row r="32" spans="1:44" customFormat="1" outlineLevel="1">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2">
-        <v>41562</v>
-      </c>
-      <c r="F32" s="2">
-        <v>41577</v>
-      </c>
+    <row r="32" spans="1:44" customFormat="1">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="I32" s="10"/>
       <c r="J32" s="6"/>
       <c r="K32" s="8"/>
@@ -2302,244 +2320,181 @@
       <c r="W32" s="10"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="8"/>
-      <c r="AA32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP32" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="AA32" s="10"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="8"/>
+      <c r="AH32" s="10"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
     </row>
     <row r="33" spans="1:44" customFormat="1">
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="8"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="8"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="8"/>
-      <c r="AA33" s="10"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="8"/>
-      <c r="AH33" s="10"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2">
+        <v>41544</v>
+      </c>
+      <c r="F33" s="2">
+        <v>41577</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33" t="s">
+        <v>52</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP33" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="AQ33" s="10"/>
     </row>
     <row r="34" spans="1:44" customFormat="1">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2">
-        <v>41544</v>
+        <v>41577</v>
       </c>
       <c r="F34" s="2">
         <v>41577</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N34" t="s">
-        <v>54</v>
-      </c>
-      <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S34" t="s">
-        <v>54</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="U34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO34" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="8"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="8"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="8"/>
+      <c r="AA34" s="10"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="8"/>
+      <c r="AH34" s="10"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
       <c r="AP34" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AQ34" s="10"/>
     </row>
     <row r="35" spans="1:44" customFormat="1">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2">
-        <v>41577</v>
-      </c>
-      <c r="F35" s="2">
-        <v>41577</v>
-      </c>
       <c r="I35" s="10"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="8"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="8"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="8"/>
-      <c r="AA35" s="10"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="8"/>
-      <c r="AH35" s="10"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="10"/>
-      <c r="AO35" s="10"/>
-      <c r="AP35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ35" s="10"/>
-    </row>
-    <row r="36" spans="1:44" customFormat="1">
-      <c r="I36" s="10"/>
-    </row>
+    </row>
+    <row r="36" spans="1:44" customFormat="1"/>
     <row r="37" spans="1:44" customFormat="1"/>
     <row r="38" spans="1:44" customFormat="1"/>
     <row r="39" spans="1:44" customFormat="1"/>
@@ -2550,7 +2505,7 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:AQ1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:AP35">
+  <conditionalFormatting sqref="I3:AP34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -2581,57 +2536,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -684,8 +684,8 @@
   <dimension ref="A1:AR41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1080,6 +1080,9 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
       <c r="E6" s="2">
         <v>41544</v>
       </c>
@@ -1347,6 +1350,9 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
       <c r="E12" s="2">
         <v>41555</v>
       </c>
@@ -1390,6 +1396,9 @@
       </c>
       <c r="C13" t="s">
         <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
       </c>
       <c r="E13" s="2">
         <v>41555</v>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\git\Fallstudie\Projektmanagement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6450"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="Teams" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A13:AM32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -277,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,25 +685,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR41"/>
+  <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="8" width="39.75" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="43" width="3.125" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="43" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I1" s="12" t="s">
         <v>49</v>
       </c>
@@ -740,7 +746,7 @@
       <c r="AP1" s="12"/>
       <c r="AQ1" s="12"/>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -871,7 +877,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="3" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -882,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>41544</v>
@@ -920,7 +926,7 @@
       <c r="AP3" s="10"/>
       <c r="AQ3" s="10"/>
     </row>
-    <row r="4" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="4" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -931,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>41544</v>
@@ -995,7 +1001,7 @@
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
     </row>
-    <row r="5" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="5" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>41544</v>
@@ -1070,7 +1076,7 @@
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
     </row>
-    <row r="6" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="6" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1145,7 +1151,7 @@
       <c r="AP6" s="10"/>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="1:44" customFormat="1">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="I7" s="10"/>
@@ -1170,7 +1176,7 @@
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
     </row>
-    <row r="8" spans="1:44" customFormat="1">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1216,7 +1222,7 @@
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
     </row>
-    <row r="9" spans="1:44" customFormat="1">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
       <c r="K9" s="8"/>
@@ -1239,7 +1245,7 @@
       <c r="AP9" s="10"/>
       <c r="AQ9" s="10"/>
     </row>
-    <row r="10" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="10" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
         <v>41555</v>
@@ -1292,7 +1298,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="11" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1302,6 +1308,9 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
       <c r="E11" s="2">
         <v>41555</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>41556</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
         <v>68</v>
@@ -1340,7 +1349,7 @@
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
     </row>
-    <row r="12" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="12" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1387,7 +1396,7 @@
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
     </row>
-    <row r="13" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="13" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1449,7 @@
       <c r="AP13" s="10"/>
       <c r="AQ13" s="10"/>
     </row>
-    <row r="14" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="14" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1487,7 +1496,7 @@
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
     </row>
-    <row r="15" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="15" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1530,7 +1539,7 @@
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
     </row>
-    <row r="16" spans="1:44" customFormat="1">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I16" s="10"/>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
@@ -1553,7 +1562,7 @@
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
     </row>
-    <row r="17" spans="1:44" customFormat="1">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1596,7 +1605,7 @@
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
     </row>
-    <row r="18" spans="1:44" customFormat="1">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I18" s="10"/>
       <c r="J18" s="6"/>
       <c r="K18" s="8"/>
@@ -1619,7 +1628,7 @@
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
     </row>
-    <row r="19" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="19" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1628,6 +1637,9 @@
       </c>
       <c r="C19" t="s">
         <v>10</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
       </c>
       <c r="E19" s="2">
         <v>41557</v>
@@ -1662,7 +1674,7 @@
       <c r="AP19" s="10"/>
       <c r="AQ19" s="10"/>
     </row>
-    <row r="20" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="20" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1671,6 +1683,9 @@
       </c>
       <c r="C20" t="s">
         <v>10</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
       </c>
       <c r="E20" s="2">
         <v>41557</v>
@@ -1713,7 +1728,7 @@
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
     </row>
-    <row r="21" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="21" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1764,7 +1779,7 @@
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
     </row>
-    <row r="22" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="22" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1815,7 +1830,7 @@
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
     </row>
-    <row r="23" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="23" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1866,7 +1881,7 @@
       <c r="AP23" s="10"/>
       <c r="AQ23" s="10"/>
     </row>
-    <row r="24" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="24" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1917,7 +1932,7 @@
       <c r="AP24" s="10"/>
       <c r="AQ24" s="10"/>
     </row>
-    <row r="25" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="25" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1968,7 +1983,7 @@
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
     </row>
-    <row r="26" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="26" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2008,7 +2023,7 @@
       <c r="AP26" s="10"/>
       <c r="AQ26" s="10"/>
     </row>
-    <row r="27" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="27" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2061,7 +2076,7 @@
       <c r="AP27" s="10"/>
       <c r="AQ27" s="10"/>
     </row>
-    <row r="28" spans="1:44" customFormat="1">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I28" s="10"/>
       <c r="J28" s="6"/>
       <c r="K28" s="8"/>
@@ -2084,7 +2099,7 @@
       <c r="AP28" s="10"/>
       <c r="AQ28" s="10"/>
     </row>
-    <row r="29" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="29" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2161,7 +2176,7 @@
       </c>
       <c r="AQ29" s="10"/>
     </row>
-    <row r="30" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="30" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2238,7 +2253,7 @@
       </c>
       <c r="AQ30" s="10"/>
     </row>
-    <row r="31" spans="1:44" customFormat="1" outlineLevel="1">
+    <row r="31" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2315,7 +2330,7 @@
       </c>
       <c r="AQ31" s="10"/>
     </row>
-    <row r="32" spans="1:44" customFormat="1">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="I32" s="10"/>
@@ -2340,7 +2355,7 @@
       <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
     </row>
-    <row r="33" spans="1:44" customFormat="1">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2460,7 +2475,7 @@
       </c>
       <c r="AQ33" s="10"/>
     </row>
-    <row r="34" spans="1:44" customFormat="1">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2500,15 +2515,9 @@
       </c>
       <c r="AQ34" s="10"/>
     </row>
-    <row r="35" spans="1:44" customFormat="1">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:44" customFormat="1"/>
-    <row r="37" spans="1:44" customFormat="1"/>
-    <row r="38" spans="1:44" customFormat="1"/>
-    <row r="39" spans="1:44" customFormat="1"/>
-    <row r="40" spans="1:44" customFormat="1"/>
-    <row r="41" spans="1:44" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:L1"/>
@@ -2536,14 +2545,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2554,7 +2563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -688,17 +688,15 @@
   <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1" outlineLevel="2"/>
     <col min="8" max="8" width="39.7109375" customWidth="1" outlineLevel="2"/>
@@ -1318,7 +1316,7 @@
         <v>41556</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
         <v>68</v>
@@ -1639,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>41557</v>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\git\Fallstudie\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="71">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -281,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,9 +423,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,7 +463,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -535,7 +535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -688,22 +688,22 @@
   <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="43" width="3.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="39.75" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="43" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="I1" s="12" t="s">
         <v>49</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="AP1" s="12"/>
       <c r="AQ1" s="12"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -875,7 +875,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" outlineLevel="1">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -924,7 +924,7 @@
       <c r="AP3" s="10"/>
       <c r="AQ3" s="10"/>
     </row>
-    <row r="4" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" outlineLevel="1">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
     </row>
-    <row r="5" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" outlineLevel="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
     </row>
-    <row r="6" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" outlineLevel="1">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="AP6" s="10"/>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="I7" s="10"/>
@@ -1174,7 +1174,7 @@
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
       <c r="K9" s="8"/>
@@ -1243,7 +1243,7 @@
       <c r="AP9" s="10"/>
       <c r="AQ9" s="10"/>
     </row>
-    <row r="10" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" outlineLevel="1">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" outlineLevel="1">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
     </row>
-    <row r="12" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" outlineLevel="1">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
     </row>
-    <row r="13" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" outlineLevel="1">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>41557</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -1447,7 +1447,7 @@
       <c r="AP13" s="10"/>
       <c r="AQ13" s="10"/>
     </row>
-    <row r="14" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" outlineLevel="1">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
     </row>
-    <row r="15" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" outlineLevel="1">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="I16" s="10"/>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
@@ -1560,7 +1560,7 @@
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="I18" s="10"/>
       <c r="J18" s="6"/>
       <c r="K18" s="8"/>
@@ -1626,7 +1626,7 @@
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
     </row>
-    <row r="19" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" outlineLevel="1">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1644,6 +1644,9 @@
       </c>
       <c r="F19" s="2">
         <v>41557</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -1672,7 +1675,7 @@
       <c r="AP19" s="10"/>
       <c r="AQ19" s="10"/>
     </row>
-    <row r="20" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" outlineLevel="1">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1726,7 +1729,7 @@
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
     </row>
-    <row r="21" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" outlineLevel="1">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1777,7 +1780,7 @@
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
     </row>
-    <row r="22" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" outlineLevel="1">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1828,7 +1831,7 @@
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
     </row>
-    <row r="23" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" outlineLevel="1">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1879,7 +1882,7 @@
       <c r="AP23" s="10"/>
       <c r="AQ23" s="10"/>
     </row>
-    <row r="24" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" outlineLevel="1">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1930,7 +1933,7 @@
       <c r="AP24" s="10"/>
       <c r="AQ24" s="10"/>
     </row>
-    <row r="25" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" outlineLevel="1">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1981,7 +1984,7 @@
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
     </row>
-    <row r="26" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" outlineLevel="1">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2021,7 +2024,7 @@
       <c r="AP26" s="10"/>
       <c r="AQ26" s="10"/>
     </row>
-    <row r="27" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" outlineLevel="1">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2074,7 +2077,7 @@
       <c r="AP27" s="10"/>
       <c r="AQ27" s="10"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="I28" s="10"/>
       <c r="J28" s="6"/>
       <c r="K28" s="8"/>
@@ -2097,7 +2100,7 @@
       <c r="AP28" s="10"/>
       <c r="AQ28" s="10"/>
     </row>
-    <row r="29" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" outlineLevel="1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2174,7 +2177,7 @@
       </c>
       <c r="AQ29" s="10"/>
     </row>
-    <row r="30" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" outlineLevel="1">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2251,7 +2254,7 @@
       </c>
       <c r="AQ30" s="10"/>
     </row>
-    <row r="31" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" outlineLevel="1">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2328,7 +2331,7 @@
       </c>
       <c r="AQ31" s="10"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="I32" s="10"/>
@@ -2353,7 +2356,7 @@
       <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2473,7 +2476,7 @@
       </c>
       <c r="AQ33" s="10"/>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2513,7 +2516,7 @@
       </c>
       <c r="AQ34" s="10"/>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43">
       <c r="I35" s="10"/>
     </row>
   </sheetData>
@@ -2543,14 +2546,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>28</v>
       </c>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="71">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -281,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,25 +685,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39.25" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="8" width="39.75" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="43" width="3.125" customWidth="1"/>
+    <col min="4" max="5" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.625" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="39.75" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="3.125" customWidth="1" collapsed="1"/>
+    <col min="10" max="43" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="I1" s="12" t="s">
         <v>49</v>
       </c>
@@ -744,7 +748,7 @@
       <c r="AP1" s="12"/>
       <c r="AQ1" s="12"/>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -875,7 +879,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:43" outlineLevel="1">
+    <row r="3" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -924,7 +928,7 @@
       <c r="AP3" s="10"/>
       <c r="AQ3" s="10"/>
     </row>
-    <row r="4" spans="1:43" outlineLevel="1">
+    <row r="4" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -999,7 +1003,7 @@
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
     </row>
-    <row r="5" spans="1:43" outlineLevel="1">
+    <row r="5" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1078,7 @@
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
     </row>
-    <row r="6" spans="1:43" outlineLevel="1">
+    <row r="6" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1153,7 @@
       <c r="AP6" s="10"/>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="I7" s="10"/>
@@ -1174,7 +1178,7 @@
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1220,7 +1224,7 @@
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
       <c r="K9" s="8"/>
@@ -1243,7 +1247,7 @@
       <c r="AP9" s="10"/>
       <c r="AQ9" s="10"/>
     </row>
-    <row r="10" spans="1:43" outlineLevel="1">
+    <row r="10" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1296,7 +1300,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:43" outlineLevel="1">
+    <row r="11" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1347,7 +1351,7 @@
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
     </row>
-    <row r="12" spans="1:43" outlineLevel="1">
+    <row r="12" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1377,8 +1381,12 @@
       <c r="K12" s="8"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="8"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
+      <c r="T12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="6"/>
@@ -1394,7 +1402,7 @@
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
     </row>
-    <row r="13" spans="1:43" outlineLevel="1">
+    <row r="13" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1447,7 +1455,7 @@
       <c r="AP13" s="10"/>
       <c r="AQ13" s="10"/>
     </row>
-    <row r="14" spans="1:43" outlineLevel="1">
+    <row r="14" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1494,7 +1502,7 @@
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
     </row>
-    <row r="15" spans="1:43" outlineLevel="1">
+    <row r="15" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1537,7 +1545,7 @@
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="I16" s="10"/>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
@@ -1560,7 +1568,7 @@
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1603,7 +1611,7 @@
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="I18" s="10"/>
       <c r="J18" s="6"/>
       <c r="K18" s="8"/>
@@ -1626,7 +1634,7 @@
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
     </row>
-    <row r="19" spans="1:43" outlineLevel="1">
+    <row r="19" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1675,7 +1683,7 @@
       <c r="AP19" s="10"/>
       <c r="AQ19" s="10"/>
     </row>
-    <row r="20" spans="1:43" outlineLevel="1">
+    <row r="20" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1729,7 +1737,7 @@
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
     </row>
-    <row r="21" spans="1:43" outlineLevel="1">
+    <row r="21" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1780,7 +1788,7 @@
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
     </row>
-    <row r="22" spans="1:43" outlineLevel="1">
+    <row r="22" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1831,7 +1839,7 @@
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
     </row>
-    <row r="23" spans="1:43" outlineLevel="1">
+    <row r="23" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1882,7 +1890,7 @@
       <c r="AP23" s="10"/>
       <c r="AQ23" s="10"/>
     </row>
-    <row r="24" spans="1:43" outlineLevel="1">
+    <row r="24" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1933,7 +1941,7 @@
       <c r="AP24" s="10"/>
       <c r="AQ24" s="10"/>
     </row>
-    <row r="25" spans="1:43" outlineLevel="1">
+    <row r="25" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1984,7 +1992,7 @@
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
     </row>
-    <row r="26" spans="1:43" outlineLevel="1">
+    <row r="26" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2024,7 +2032,7 @@
       <c r="AP26" s="10"/>
       <c r="AQ26" s="10"/>
     </row>
-    <row r="27" spans="1:43" outlineLevel="1">
+    <row r="27" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2077,7 +2085,7 @@
       <c r="AP27" s="10"/>
       <c r="AQ27" s="10"/>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="6"/>
       <c r="K28" s="8"/>
@@ -2100,7 +2108,7 @@
       <c r="AP28" s="10"/>
       <c r="AQ28" s="10"/>
     </row>
-    <row r="29" spans="1:43" outlineLevel="1">
+    <row r="29" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2177,7 +2185,7 @@
       </c>
       <c r="AQ29" s="10"/>
     </row>
-    <row r="30" spans="1:43" outlineLevel="1">
+    <row r="30" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2254,7 +2262,7 @@
       </c>
       <c r="AQ30" s="10"/>
     </row>
-    <row r="31" spans="1:43" outlineLevel="1">
+    <row r="31" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2339,7 @@
       </c>
       <c r="AQ31" s="10"/>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="I32" s="10"/>
@@ -2356,7 +2364,7 @@
       <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2476,7 +2484,7 @@
       </c>
       <c r="AQ33" s="10"/>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2516,7 +2524,7 @@
       </c>
       <c r="AQ34" s="10"/>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="I35" s="10"/>
     </row>
   </sheetData>
@@ -2533,7 +2541,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2546,14 +2554,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2564,7 +2572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2575,7 +2583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2586,7 +2594,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2597,7 +2605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
     <sheet name="Teams" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="73">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>Anforderungskatalog erstellen</t>
+  </si>
+  <si>
+    <t>Aufwand gesamt</t>
+  </si>
+  <si>
+    <t>Aufwand p.P.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -384,11 +390,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -688,23 +835,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ35"/>
+  <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR15" sqref="AR15"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39.25" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.625" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="8" width="39.75" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="9" width="3.125" customWidth="1" collapsed="1"/>
-    <col min="10" max="43" width="3.125" customWidth="1"/>
+    <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="39.75" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="43" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
@@ -1471,6 +1617,9 @@
       <c r="F14" s="2">
         <v>41557</v>
       </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
       <c r="H14" t="s">
         <v>36</v>
       </c>
@@ -1517,6 +1666,9 @@
       </c>
       <c r="F15" s="2">
         <v>41557</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
       </c>
       <c r="H15" t="s">
         <v>63</v>
@@ -2525,19 +2677,68 @@
       <c r="AQ34" s="10"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="I35" s="10"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="8"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="8"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="8"/>
+      <c r="AA35" s="10"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="8"/>
+      <c r="AH35" s="10"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36">
+        <f>SUM(D6:D34)</f>
+        <v>168</v>
+      </c>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="13">
+        <f>D36/11</f>
+        <v>15.272727272727273</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:AQ1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:AP34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="I3:AP35">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"m"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G34">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"m"</formula>
+      <formula>"erledigt"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Rework">
+      <formula>NOT(ISERROR(SEARCH("Rework",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
     <sheet name="Teams" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Übersicht!$A$2:$H$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -387,135 +390,15 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -838,8 +721,8 @@
   <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -854,45 +737,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1661,6 +1544,9 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
       <c r="E15" s="2">
         <v>41557</v>
       </c>
@@ -1730,6 +1616,9 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17" s="2">
         <v>41557</v>
       </c>
@@ -2193,6 +2082,9 @@
       </c>
       <c r="C27" t="s">
         <v>38</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
       </c>
       <c r="E27" s="2">
         <v>41562</v>
@@ -2526,6 +2418,9 @@
       <c r="C33" t="s">
         <v>38</v>
       </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
       <c r="E33" s="2">
         <v>41544</v>
       </c>
@@ -2645,6 +2540,9 @@
       </c>
       <c r="C34" t="s">
         <v>42</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
       </c>
       <c r="E34" s="2">
         <v>41577</v>
@@ -2707,7 +2605,7 @@
       </c>
       <c r="D36">
         <f>SUM(D6:D34)</f>
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="I36" s="10"/>
     </row>
@@ -2715,9 +2613,9 @@
       <c r="C37" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <f>D36/11</f>
-        <v>15.272727272727273</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
   </sheetData>
@@ -2726,18 +2624,18 @@
     <mergeCell ref="M1:AQ1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:AP35">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G34">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"erledigt"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Rework">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Rework">
       <formula>NOT(ISERROR(SEARCH("Rework",G3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Projektmanagement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6450"/>
   </bookViews>
@@ -18,9 +13,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Übersicht!$A$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +28,7 @@
     <author>Johannes Haag</author>
   </authors>
   <commentList>
-    <comment ref="AG2" authorId="0" shapeId="0">
+    <comment ref="AG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,11 +281,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,7 +525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,36 +702,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="8" width="39.75" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="43" width="3.125" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="43" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43">
       <c r="I1" s="13" t="s">
         <v>49</v>
       </c>
@@ -777,7 +772,7 @@
       <c r="AP1" s="13"/>
       <c r="AQ1" s="13"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -908,7 +903,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" outlineLevel="1">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -957,7 +952,7 @@
       <c r="AP3" s="10"/>
       <c r="AQ3" s="10"/>
     </row>
-    <row r="4" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" outlineLevel="1">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +1027,7 @@
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
     </row>
-    <row r="5" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" outlineLevel="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1107,7 +1102,7 @@
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
     </row>
-    <row r="6" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" outlineLevel="1">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1177,7 @@
       <c r="AP6" s="10"/>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="I7" s="10"/>
@@ -1207,7 +1202,7 @@
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1253,7 +1248,7 @@
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43">
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
       <c r="K9" s="8"/>
@@ -1276,7 +1271,7 @@
       <c r="AP9" s="10"/>
       <c r="AQ9" s="10"/>
     </row>
-    <row r="10" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" outlineLevel="1">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1329,7 +1324,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" outlineLevel="1">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1380,7 +1375,7 @@
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
     </row>
-    <row r="12" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" outlineLevel="1">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1431,7 +1426,7 @@
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
     </row>
-    <row r="13" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" outlineLevel="1">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1484,7 +1479,7 @@
       <c r="AP13" s="10"/>
       <c r="AQ13" s="10"/>
     </row>
-    <row r="14" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" outlineLevel="1">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1534,7 +1529,7 @@
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
     </row>
-    <row r="15" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" outlineLevel="1">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1583,7 +1578,7 @@
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43">
       <c r="I16" s="10"/>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
@@ -1606,7 +1601,7 @@
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1652,7 +1647,7 @@
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43">
       <c r="I18" s="10"/>
       <c r="J18" s="6"/>
       <c r="K18" s="8"/>
@@ -1675,7 +1670,7 @@
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
     </row>
-    <row r="19" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" outlineLevel="1">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1719,7 @@
       <c r="AP19" s="10"/>
       <c r="AQ19" s="10"/>
     </row>
-    <row r="20" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" outlineLevel="1">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1778,7 +1773,7 @@
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
     </row>
-    <row r="21" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" outlineLevel="1">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1829,7 +1824,7 @@
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
     </row>
-    <row r="22" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" outlineLevel="1">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1838,6 +1833,9 @@
       </c>
       <c r="C22" t="s">
         <v>9</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
       </c>
       <c r="E22" s="2">
         <v>41557</v>
@@ -1880,7 +1878,7 @@
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
     </row>
-    <row r="23" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" outlineLevel="1">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1929,7 @@
       <c r="AP23" s="10"/>
       <c r="AQ23" s="10"/>
     </row>
-    <row r="24" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" outlineLevel="1">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1982,7 +1980,7 @@
       <c r="AP24" s="10"/>
       <c r="AQ24" s="10"/>
     </row>
-    <row r="25" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" outlineLevel="1">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2033,7 +2031,7 @@
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
     </row>
-    <row r="26" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" outlineLevel="1">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2073,7 +2071,7 @@
       <c r="AP26" s="10"/>
       <c r="AQ26" s="10"/>
     </row>
-    <row r="27" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" outlineLevel="1">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2129,7 +2127,7 @@
       <c r="AP27" s="10"/>
       <c r="AQ27" s="10"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43">
       <c r="I28" s="10"/>
       <c r="J28" s="6"/>
       <c r="K28" s="8"/>
@@ -2152,7 +2150,7 @@
       <c r="AP28" s="10"/>
       <c r="AQ28" s="10"/>
     </row>
-    <row r="29" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" outlineLevel="1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2229,7 +2227,7 @@
       </c>
       <c r="AQ29" s="10"/>
     </row>
-    <row r="30" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" outlineLevel="1">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2306,7 +2304,7 @@
       </c>
       <c r="AQ30" s="10"/>
     </row>
-    <row r="31" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" outlineLevel="1">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2383,7 +2381,7 @@
       </c>
       <c r="AQ31" s="10"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="I32" s="10"/>
@@ -2408,7 +2406,7 @@
       <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2531,7 +2529,7 @@
       </c>
       <c r="AQ33" s="10"/>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2574,7 +2572,7 @@
       </c>
       <c r="AQ34" s="10"/>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="I35" s="10"/>
@@ -2599,23 +2597,23 @@
       <c r="AP35" s="10"/>
       <c r="AQ35" s="10"/>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43">
       <c r="C36" t="s">
         <v>71</v>
       </c>
       <c r="D36">
         <f>SUM(D6:D34)</f>
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43">
       <c r="C37" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="12">
         <f>D36/11</f>
-        <v>19.90909090909091</v>
+        <v>26.272727272727273</v>
       </c>
     </row>
   </sheetData>
@@ -2646,21 +2644,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2671,7 +2669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>28</v>
       </c>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Lachnit\git\Fallstudie\Projektmanagement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="19140" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Übersicht!$A$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
     <author>Johannes Haag</author>
   </authors>
   <commentList>
-    <comment ref="AG2" authorId="0">
+    <comment ref="AG2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,11 +286,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,25 +707,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
@@ -731,7 +736,7 @@
     <col min="9" max="43" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I1" s="13" t="s">
         <v>49</v>
       </c>
@@ -772,7 +777,7 @@
       <c r="AP1" s="13"/>
       <c r="AQ1" s="13"/>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -903,7 +908,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:43" outlineLevel="1">
+    <row r="3" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -952,7 +957,7 @@
       <c r="AP3" s="10"/>
       <c r="AQ3" s="10"/>
     </row>
-    <row r="4" spans="1:43" outlineLevel="1">
+    <row r="4" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +1032,7 @@
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
     </row>
-    <row r="5" spans="1:43" outlineLevel="1">
+    <row r="5" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1102,7 +1107,7 @@
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
     </row>
-    <row r="6" spans="1:43" outlineLevel="1">
+    <row r="6" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1177,7 +1182,7 @@
       <c r="AP6" s="10"/>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="I7" s="10"/>
@@ -1202,7 +1207,7 @@
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1248,7 +1253,7 @@
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
       <c r="K9" s="8"/>
@@ -1271,7 +1276,7 @@
       <c r="AP9" s="10"/>
       <c r="AQ9" s="10"/>
     </row>
-    <row r="10" spans="1:43" outlineLevel="1">
+    <row r="10" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1324,7 +1329,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:43" outlineLevel="1">
+    <row r="11" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1375,7 +1380,7 @@
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
     </row>
-    <row r="12" spans="1:43" outlineLevel="1">
+    <row r="12" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1426,7 +1431,7 @@
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
     </row>
-    <row r="13" spans="1:43" outlineLevel="1">
+    <row r="13" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1479,7 +1484,7 @@
       <c r="AP13" s="10"/>
       <c r="AQ13" s="10"/>
     </row>
-    <row r="14" spans="1:43" outlineLevel="1">
+    <row r="14" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1529,7 +1534,7 @@
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
     </row>
-    <row r="15" spans="1:43" outlineLevel="1">
+    <row r="15" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1578,7 +1583,7 @@
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I16" s="10"/>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
@@ -1601,7 +1606,7 @@
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1647,7 +1652,7 @@
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I18" s="10"/>
       <c r="J18" s="6"/>
       <c r="K18" s="8"/>
@@ -1670,7 +1675,7 @@
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
     </row>
-    <row r="19" spans="1:43" outlineLevel="1">
+    <row r="19" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1719,7 +1724,7 @@
       <c r="AP19" s="10"/>
       <c r="AQ19" s="10"/>
     </row>
-    <row r="20" spans="1:43" outlineLevel="1">
+    <row r="20" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1773,7 +1778,7 @@
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
     </row>
-    <row r="21" spans="1:43" outlineLevel="1">
+    <row r="21" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1829,7 @@
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
     </row>
-    <row r="22" spans="1:43" outlineLevel="1">
+    <row r="22" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1878,7 +1883,7 @@
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
     </row>
-    <row r="23" spans="1:43" outlineLevel="1">
+    <row r="23" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1887,6 +1892,9 @@
       </c>
       <c r="C23" t="s">
         <v>60</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
       </c>
       <c r="E23" s="2">
         <v>41557</v>
@@ -1929,7 +1937,7 @@
       <c r="AP23" s="10"/>
       <c r="AQ23" s="10"/>
     </row>
-    <row r="24" spans="1:43" outlineLevel="1">
+    <row r="24" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1980,7 +1988,7 @@
       <c r="AP24" s="10"/>
       <c r="AQ24" s="10"/>
     </row>
-    <row r="25" spans="1:43" outlineLevel="1">
+    <row r="25" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2039,7 @@
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
     </row>
-    <row r="26" spans="1:43" outlineLevel="1">
+    <row r="26" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2079,7 @@
       <c r="AP26" s="10"/>
       <c r="AQ26" s="10"/>
     </row>
-    <row r="27" spans="1:43" outlineLevel="1">
+    <row r="27" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2127,7 +2135,7 @@
       <c r="AP27" s="10"/>
       <c r="AQ27" s="10"/>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I28" s="10"/>
       <c r="J28" s="6"/>
       <c r="K28" s="8"/>
@@ -2150,7 +2158,7 @@
       <c r="AP28" s="10"/>
       <c r="AQ28" s="10"/>
     </row>
-    <row r="29" spans="1:43" outlineLevel="1">
+    <row r="29" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2159,6 +2167,9 @@
       </c>
       <c r="C29" t="s">
         <v>60</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
       </c>
       <c r="E29" s="2">
         <v>41562</v>
@@ -2227,7 +2238,7 @@
       </c>
       <c r="AQ29" s="10"/>
     </row>
-    <row r="30" spans="1:43" outlineLevel="1">
+    <row r="30" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2236,6 +2247,9 @@
       </c>
       <c r="C30" t="s">
         <v>60</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
       </c>
       <c r="E30" s="2">
         <v>41562</v>
@@ -2304,7 +2318,7 @@
       </c>
       <c r="AQ30" s="10"/>
     </row>
-    <row r="31" spans="1:43" outlineLevel="1">
+    <row r="31" spans="1:43" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2312,6 +2326,9 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31">
         <v>60</v>
       </c>
       <c r="E31" s="2">
@@ -2381,7 +2398,7 @@
       </c>
       <c r="AQ31" s="10"/>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="I32" s="10"/>
@@ -2406,7 +2423,7 @@
       <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2529,7 +2546,7 @@
       </c>
       <c r="AQ33" s="10"/>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2572,7 +2589,7 @@
       </c>
       <c r="AQ34" s="10"/>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="I35" s="10"/>
@@ -2597,23 +2614,23 @@
       <c r="AP35" s="10"/>
       <c r="AQ35" s="10"/>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>71</v>
       </c>
       <c r="D36">
         <f>SUM(D6:D34)</f>
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="12">
         <f>D36/11</f>
-        <v>26.272727272727273</v>
+        <v>40.363636363636367</v>
       </c>
     </row>
   </sheetData>
@@ -2644,21 +2661,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2669,7 +2686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2680,7 +2697,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2691,7 +2708,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2702,7 +2719,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Lachnit\git\Fallstudie\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\git\Fallstudie\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -721,8 +721,8 @@
   <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -1494,6 +1494,9 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
       <c r="E14" s="2">
         <v>41555</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2">
         <v>41557</v>
@@ -1788,6 +1791,9 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
       <c r="E21" s="2">
         <v>41557</v>
       </c>
@@ -1947,6 +1953,9 @@
       <c r="C24" t="s">
         <v>11</v>
       </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
       <c r="E24" s="2">
         <v>41557</v>
       </c>
@@ -1998,6 +2007,9 @@
       <c r="C25" t="s">
         <v>11</v>
       </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
       <c r="E25" s="2">
         <v>41557</v>
       </c>
@@ -2048,6 +2060,9 @@
       </c>
       <c r="C26" t="s">
         <v>11</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
       </c>
       <c r="E26" s="2">
         <v>41562</v>
@@ -2620,7 +2635,7 @@
       </c>
       <c r="D36">
         <f>SUM(D6:D34)</f>
-        <v>444</v>
+        <v>559</v>
       </c>
       <c r="I36" s="10"/>
     </row>
@@ -2630,7 +2645,7 @@
       </c>
       <c r="D37" s="12">
         <f>D36/11</f>
-        <v>40.363636363636367</v>
+        <v>50.81818181818182</v>
       </c>
     </row>
   </sheetData>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Desktop\Angebot\Einzeldokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="65">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>technisches Klassenmodell - Controllerschicht</t>
+  </si>
+  <si>
+    <t>Test durch Auftraggeber</t>
+  </si>
+  <si>
+    <t>Osburg</t>
   </si>
 </sst>
 </file>
@@ -688,19 +694,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP38"/>
+  <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.25" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.625" customWidth="1" outlineLevel="2"/>
     <col min="8" max="42" width="3.125" customWidth="1"/>
   </cols>
@@ -2091,7 +2099,7 @@
         <v>41562</v>
       </c>
       <c r="F28" s="2">
-        <v>41569</v>
+        <v>41565</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="6"/>
@@ -2116,12 +2124,8 @@
       <c r="AC28" t="s">
         <v>43</v>
       </c>
-      <c r="AD28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE28" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="8"/>
       <c r="AG28" s="10"/>
       <c r="AK28" s="6"/>
       <c r="AL28" s="8"/>
@@ -2393,9 +2397,22 @@
       </c>
       <c r="AP32" s="10"/>
     </row>
-    <row r="33" spans="1:42">
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+    <row r="33" spans="1:42" outlineLevel="1">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>41569</v>
+      </c>
+      <c r="F33" s="2">
+        <v>41569</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" s="6"/>
       <c r="J33" s="8"/>
@@ -2410,7 +2427,9 @@
       <c r="Z33" s="10"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="8"/>
-      <c r="AG33" s="10"/>
+      <c r="AG33" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="AK33" s="6"/>
       <c r="AL33" s="8"/>
       <c r="AM33" s="10"/>
@@ -2418,141 +2437,55 @@
       <c r="AO33" s="10"/>
       <c r="AP33" s="10"/>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" outlineLevel="1">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2">
-        <v>41544</v>
+        <v>41575</v>
       </c>
       <c r="F34" s="2">
-        <v>41577</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N34" t="s">
-        <v>43</v>
-      </c>
-      <c r="O34" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R34" t="s">
-        <v>43</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="U34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL34" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>41575</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="8"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="8"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="8"/>
+      <c r="Z34" s="10"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="8"/>
+      <c r="AG34" s="10"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="8"/>
       <c r="AM34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO34" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
       <c r="AP34" s="10"/>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" outlineLevel="1">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2">
         <v>41577</v>
@@ -2610,21 +2543,212 @@
       <c r="AP36" s="10"/>
     </row>
     <row r="37" spans="1:42">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
       <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2">
+        <v>41544</v>
+      </c>
+      <c r="F37" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP37" s="10"/>
+    </row>
+    <row r="38" spans="1:42">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>41577</v>
+      </c>
+      <c r="F38" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="8"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="8"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="8"/>
+      <c r="Z38" s="10"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="8"/>
+      <c r="AG38" s="10"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP38" s="10"/>
+    </row>
+    <row r="39" spans="1:42">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="8"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="8"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="8"/>
+      <c r="Z39" s="10"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="8"/>
+      <c r="AG39" s="10"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="10"/>
+    </row>
+    <row r="40" spans="1:42">
+      <c r="C40" t="s">
         <v>60</v>
       </c>
-      <c r="D37">
-        <f>SUM(D6:D35)</f>
+      <c r="D40">
+        <f>SUM(D6:D38)</f>
         <v>569</v>
       </c>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:42">
-      <c r="C38" t="s">
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:42">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="12">
-        <f>D37/11</f>
+      <c r="D41" s="12">
+        <f>D40/11</f>
         <v>51.727272727272727</v>
       </c>
     </row>
@@ -2633,7 +2757,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:AP1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:AO36">
+  <conditionalFormatting sqref="H3:AO39">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -2641,7 +2765,7 @@
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G35">
+  <conditionalFormatting sqref="G3:G38">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Rework">
       <formula>NOT(ISERROR(SEARCH("Rework",G3)))</formula>
     </cfRule>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\git\Fallstudie\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -266,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,22 +698,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="42" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="42" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H1" s="13" t="s">
         <v>40</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="AO1" s="13"/>
       <c r="AP1" s="13"/>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -882,7 +882,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:42" outlineLevel="1">
+    <row r="3" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="AO3" s="10"/>
       <c r="AP3" s="10"/>
     </row>
-    <row r="4" spans="1:42" outlineLevel="1">
+    <row r="4" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="AO4" s="10"/>
       <c r="AP4" s="10"/>
     </row>
-    <row r="5" spans="1:42" outlineLevel="1">
+    <row r="5" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="AO5" s="10"/>
       <c r="AP5" s="10"/>
     </row>
-    <row r="6" spans="1:42" outlineLevel="1">
+    <row r="6" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="AO6" s="10"/>
       <c r="AP6" s="10"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="H7" s="10"/>
@@ -1169,7 +1169,7 @@
       <c r="AO7" s="10"/>
       <c r="AP7" s="10"/>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="AO8" s="10"/>
       <c r="AP8" s="10"/>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H9" s="10"/>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -1238,7 +1238,7 @@
       <c r="AO9" s="10"/>
       <c r="AP9" s="10"/>
     </row>
-    <row r="10" spans="1:42" outlineLevel="1">
+    <row r="10" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="AO10" s="10"/>
       <c r="AP10" s="10"/>
     </row>
-    <row r="11" spans="1:42" outlineLevel="1">
+    <row r="11" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>41556</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="6"/>
@@ -1336,7 +1336,7 @@
       <c r="AO11" s="10"/>
       <c r="AP11" s="10"/>
     </row>
-    <row r="12" spans="1:42" outlineLevel="1">
+    <row r="12" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="10"/>
     </row>
-    <row r="13" spans="1:42" outlineLevel="1">
+    <row r="13" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="AO13" s="10"/>
       <c r="AP13" s="10"/>
     </row>
-    <row r="14" spans="1:42" outlineLevel="1">
+    <row r="14" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="AO14" s="10"/>
       <c r="AP14" s="10"/>
     </row>
-    <row r="15" spans="1:42" outlineLevel="1">
+    <row r="15" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="AO15" s="10"/>
       <c r="AP15" s="10"/>
     </row>
-    <row r="16" spans="1:42" outlineLevel="1">
+    <row r="16" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H17" s="10"/>
       <c r="I17" s="6"/>
       <c r="J17" s="8"/>
@@ -1603,7 +1603,7 @@
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H19" s="10"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8"/>
@@ -1672,7 +1672,7 @@
       <c r="AO19" s="10"/>
       <c r="AP19" s="10"/>
     </row>
-    <row r="20" spans="1:42" outlineLevel="1">
+    <row r="20" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
     </row>
-    <row r="21" spans="1:42" outlineLevel="1">
+    <row r="21" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="AO21" s="10"/>
       <c r="AP21" s="10"/>
     </row>
-    <row r="22" spans="1:42" outlineLevel="1">
+    <row r="22" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="AO22" s="10"/>
       <c r="AP22" s="10"/>
     </row>
-    <row r="23" spans="1:42" outlineLevel="1">
+    <row r="23" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="AO23" s="10"/>
       <c r="AP23" s="10"/>
     </row>
-    <row r="24" spans="1:42" outlineLevel="1">
+    <row r="24" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="AO24" s="10"/>
       <c r="AP24" s="10"/>
     </row>
-    <row r="25" spans="1:42" outlineLevel="1">
+    <row r="25" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="AO25" s="10"/>
       <c r="AP25" s="10"/>
     </row>
-    <row r="26" spans="1:42" outlineLevel="1">
+    <row r="26" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="AO26" s="10"/>
       <c r="AP26" s="10"/>
     </row>
-    <row r="27" spans="1:42" outlineLevel="1">
+    <row r="27" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="AO27" s="10"/>
       <c r="AP27" s="10"/>
     </row>
-    <row r="28" spans="1:42" outlineLevel="1">
+    <row r="28" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="AO28" s="10"/>
       <c r="AP28" s="10"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H29" s="10"/>
       <c r="I29" s="6"/>
       <c r="J29" s="8"/>
@@ -2157,7 +2157,7 @@
       <c r="AO29" s="10"/>
       <c r="AP29" s="10"/>
     </row>
-    <row r="30" spans="1:42" outlineLevel="1">
+    <row r="30" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="AP30" s="10"/>
     </row>
-    <row r="31" spans="1:42" outlineLevel="1">
+    <row r="31" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="AP31" s="10"/>
     </row>
-    <row r="32" spans="1:42" outlineLevel="1">
+    <row r="32" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="AP32" s="10"/>
     </row>
-    <row r="33" spans="1:42" outlineLevel="1">
+    <row r="33" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="AO33" s="10"/>
       <c r="AP33" s="10"/>
     </row>
-    <row r="34" spans="1:42" outlineLevel="1">
+    <row r="34" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="AO34" s="10"/>
       <c r="AP34" s="10"/>
     </row>
-    <row r="35" spans="1:42" outlineLevel="1">
+    <row r="35" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="AP35" s="10"/>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="H36" s="10"/>
@@ -2542,7 +2542,7 @@
       <c r="AO36" s="10"/>
       <c r="AP36" s="10"/>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="AP37" s="10"/>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AP38" s="10"/>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="H39" s="10"/>
@@ -2733,7 +2733,7 @@
       <c r="AO39" s="10"/>
       <c r="AP39" s="10"/>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>60</v>
       </c>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>61</v>
       </c>
@@ -2787,14 +2787,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\git\Fallstudie\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="67">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Osburg</t>
+  </si>
+  <si>
+    <t>Cronjobs</t>
+  </si>
+  <si>
+    <t>gestartet</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,26 +700,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP41"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="42" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="42" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="H1" s="13" t="s">
         <v>40</v>
       </c>
@@ -754,7 +760,7 @@
       <c r="AO1" s="13"/>
       <c r="AP1" s="13"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -882,7 +888,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" outlineLevel="1">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -928,7 +934,7 @@
       <c r="AO3" s="10"/>
       <c r="AP3" s="10"/>
     </row>
-    <row r="4" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" outlineLevel="1">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1006,7 @@
       <c r="AO4" s="10"/>
       <c r="AP4" s="10"/>
     </row>
-    <row r="5" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" outlineLevel="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1072,7 +1078,7 @@
       <c r="AO5" s="10"/>
       <c r="AP5" s="10"/>
     </row>
-    <row r="6" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" outlineLevel="1">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1144,7 +1150,7 @@
       <c r="AO6" s="10"/>
       <c r="AP6" s="10"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="H7" s="10"/>
@@ -1169,7 +1175,7 @@
       <c r="AO7" s="10"/>
       <c r="AP7" s="10"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1215,7 +1221,7 @@
       <c r="AO8" s="10"/>
       <c r="AP8" s="10"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42">
       <c r="H9" s="10"/>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -1238,7 +1244,7 @@
       <c r="AO9" s="10"/>
       <c r="AP9" s="10"/>
     </row>
-    <row r="10" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" outlineLevel="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1288,7 +1294,7 @@
       <c r="AO10" s="10"/>
       <c r="AP10" s="10"/>
     </row>
-    <row r="11" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" outlineLevel="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1336,7 +1342,7 @@
       <c r="AO11" s="10"/>
       <c r="AP11" s="10"/>
     </row>
-    <row r="12" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" outlineLevel="1">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1390,7 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="10"/>
     </row>
-    <row r="13" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" outlineLevel="1">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1440,7 @@
       <c r="AO13" s="10"/>
       <c r="AP13" s="10"/>
     </row>
-    <row r="14" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" outlineLevel="1">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1490,7 @@
       <c r="AO14" s="10"/>
       <c r="AP14" s="10"/>
     </row>
-    <row r="15" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" outlineLevel="1">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1534,7 +1540,7 @@
       <c r="AO15" s="10"/>
       <c r="AP15" s="10"/>
     </row>
-    <row r="16" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" outlineLevel="1">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1580,7 +1586,7 @@
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42">
       <c r="H17" s="10"/>
       <c r="I17" s="6"/>
       <c r="J17" s="8"/>
@@ -1603,7 +1609,7 @@
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1655,7 @@
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42">
       <c r="H19" s="10"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8"/>
@@ -1672,7 +1678,7 @@
       <c r="AO19" s="10"/>
       <c r="AP19" s="10"/>
     </row>
-    <row r="20" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" outlineLevel="1">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1690,6 +1696,9 @@
       </c>
       <c r="F20" s="2">
         <v>41557</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="6"/>
@@ -1715,7 +1724,7 @@
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
     </row>
-    <row r="21" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" outlineLevel="1">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1778,7 @@
       <c r="AO21" s="10"/>
       <c r="AP21" s="10"/>
     </row>
-    <row r="22" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" outlineLevel="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1832,7 @@
       <c r="AO22" s="10"/>
       <c r="AP22" s="10"/>
     </row>
-    <row r="23" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" outlineLevel="1">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1877,7 +1886,7 @@
       <c r="AO23" s="10"/>
       <c r="AP23" s="10"/>
     </row>
-    <row r="24" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" outlineLevel="1">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1931,7 +1940,7 @@
       <c r="AO24" s="10"/>
       <c r="AP24" s="10"/>
     </row>
-    <row r="25" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" outlineLevel="1">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1985,18 +1994,15 @@
       <c r="AO25" s="10"/>
       <c r="AP25" s="10"/>
     </row>
-    <row r="26" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" outlineLevel="1">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>41557</v>
@@ -2023,7 +2029,7 @@
       <c r="X26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="10" t="s">
         <v>43</v>
       </c>
       <c r="Z26" s="10" t="s">
@@ -2039,21 +2045,21 @@
       <c r="AO26" s="10"/>
       <c r="AP26" s="10"/>
     </row>
-    <row r="27" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" outlineLevel="1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2">
-        <v>41562</v>
+        <v>41557</v>
       </c>
       <c r="F27" s="2">
         <v>41562</v>
@@ -2065,12 +2071,23 @@
       <c r="Q27" s="8"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="8"/>
+      <c r="U27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>43</v>
+      </c>
       <c r="Z27" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD27" s="6"/>
       <c r="AE27" s="8"/>
@@ -2082,24 +2099,24 @@
       <c r="AO27" s="10"/>
       <c r="AP27" s="10"/>
     </row>
-    <row r="28" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" outlineLevel="1">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2">
         <v>41562</v>
       </c>
       <c r="F28" s="2">
-        <v>41565</v>
+        <v>41562</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="6"/>
@@ -2113,16 +2130,7 @@
       <c r="W28" s="6"/>
       <c r="X28" s="8"/>
       <c r="Z28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD28" s="6"/>
       <c r="AE28" s="8"/>
@@ -2134,7 +2142,25 @@
       <c r="AO28" s="10"/>
       <c r="AP28" s="10"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" outlineLevel="1">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F29" s="2">
+        <v>41565</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" s="6"/>
       <c r="J29" s="8"/>
@@ -2146,7 +2172,18 @@
       <c r="V29" s="10"/>
       <c r="W29" s="6"/>
       <c r="X29" s="8"/>
-      <c r="Z29" s="10"/>
+      <c r="Z29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>43</v>
+      </c>
       <c r="AD29" s="6"/>
       <c r="AE29" s="8"/>
       <c r="AG29" s="10"/>
@@ -2157,25 +2194,7 @@
       <c r="AO29" s="10"/>
       <c r="AP29" s="10"/>
     </row>
-    <row r="30" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30">
-        <v>40</v>
-      </c>
-      <c r="E30" s="2">
-        <v>41562</v>
-      </c>
-      <c r="F30" s="2">
-        <v>41577</v>
-      </c>
+    <row r="30" spans="1:42">
       <c r="H30" s="10"/>
       <c r="I30" s="6"/>
       <c r="J30" s="8"/>
@@ -2187,68 +2206,29 @@
       <c r="V30" s="10"/>
       <c r="W30" s="6"/>
       <c r="X30" s="8"/>
-      <c r="Z30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO30" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="Z30" s="10"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="8"/>
+      <c r="AG30" s="10"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
       <c r="AP30" s="10"/>
     </row>
-    <row r="31" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" outlineLevel="1">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2">
         <v>41562</v>
@@ -2317,18 +2297,18 @@
       </c>
       <c r="AP31" s="10"/>
     </row>
-    <row r="32" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" outlineLevel="1">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2">
         <v>41562</v>
@@ -2393,25 +2373,28 @@
         <v>43</v>
       </c>
       <c r="AO32" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AP32" s="10"/>
     </row>
-    <row r="33" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" outlineLevel="1">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
       </c>
       <c r="E33" s="2">
-        <v>41569</v>
+        <v>41562</v>
       </c>
       <c r="F33" s="2">
-        <v>41569</v>
+        <v>41577</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="6"/>
@@ -2424,20 +2407,57 @@
       <c r="V33" s="10"/>
       <c r="W33" s="6"/>
       <c r="X33" s="8"/>
-      <c r="Z33" s="10"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="8"/>
+      <c r="Z33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>43</v>
+      </c>
       <c r="AG33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
       <c r="AP33" s="10"/>
     </row>
-    <row r="34" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" outlineLevel="1">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2448,10 +2468,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="2">
-        <v>41575</v>
+        <v>41569</v>
       </c>
       <c r="F34" s="2">
-        <v>41575</v>
+        <v>41569</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="6"/>
@@ -2467,17 +2487,17 @@
       <c r="Z34" s="10"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="8"/>
-      <c r="AG34" s="10"/>
+      <c r="AG34" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="AK34" s="6"/>
       <c r="AL34" s="8"/>
-      <c r="AM34" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="AM34" s="10"/>
       <c r="AN34" s="10"/>
       <c r="AO34" s="10"/>
       <c r="AP34" s="10"/>
     </row>
-    <row r="35" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" outlineLevel="1">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2488,10 +2508,10 @@
         <v>64</v>
       </c>
       <c r="E35" s="2">
-        <v>41577</v>
+        <v>41575</v>
       </c>
       <c r="F35" s="2">
-        <v>41577</v>
+        <v>41575</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="6"/>
@@ -2510,16 +2530,29 @@
       <c r="AG35" s="10"/>
       <c r="AK35" s="6"/>
       <c r="AL35" s="8"/>
-      <c r="AM35" s="10"/>
+      <c r="AM35" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="AN35" s="10"/>
-      <c r="AO35" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="AO35" s="10"/>
       <c r="AP35" s="10"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+    <row r="36" spans="1:42" outlineLevel="1">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>41577</v>
+      </c>
+      <c r="F36" s="2">
+        <v>41577</v>
+      </c>
       <c r="H36" s="10"/>
       <c r="I36" s="6"/>
       <c r="J36" s="8"/>
@@ -2539,178 +2572,178 @@
       <c r="AL36" s="8"/>
       <c r="AM36" s="10"/>
       <c r="AN36" s="10"/>
-      <c r="AO36" s="10"/>
+      <c r="AO36" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="AP36" s="10"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37">
-        <v>22</v>
-      </c>
-      <c r="E37" s="2">
-        <v>41544</v>
-      </c>
-      <c r="F37" s="2">
-        <v>41577</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" t="s">
-        <v>43</v>
-      </c>
-      <c r="N37" t="s">
-        <v>43</v>
-      </c>
-      <c r="O37" t="s">
-        <v>43</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R37" t="s">
-        <v>43</v>
-      </c>
-      <c r="S37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="U37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="W37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO37" s="10" t="s">
-        <v>43</v>
-      </c>
+    <row r="37" spans="1:42">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="8"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="8"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="8"/>
+      <c r="Z37" s="10"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="8"/>
+      <c r="AG37" s="10"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
       <c r="AP37" s="10"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E38" s="2">
-        <v>41577</v>
+        <v>41544</v>
       </c>
       <c r="F38" s="2">
         <v>41577</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="8"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="8"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="8"/>
-      <c r="Z38" s="10"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="8"/>
-      <c r="AG38" s="10"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R38" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN38" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="AO38" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AP38" s="10"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+    <row r="39" spans="1:42">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>41577</v>
+      </c>
+      <c r="F39" s="2">
+        <v>41577</v>
+      </c>
       <c r="H39" s="10"/>
       <c r="I39" s="6"/>
       <c r="J39" s="8"/>
@@ -2730,26 +2763,53 @@
       <c r="AL39" s="8"/>
       <c r="AM39" s="10"/>
       <c r="AN39" s="10"/>
-      <c r="AO39" s="10"/>
+      <c r="AO39" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="AP39" s="10"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="40" spans="1:42">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="8"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="8"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="8"/>
+      <c r="Z40" s="10"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="8"/>
+      <c r="AG40" s="10"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="10"/>
+    </row>
+    <row r="41" spans="1:42">
+      <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="D40">
-        <f>SUM(D6:D38)</f>
-        <v>569</v>
-      </c>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+      <c r="D41">
+        <f>SUM(D6:D39)</f>
+        <v>579</v>
+      </c>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="12">
-        <f>D40/11</f>
-        <v>51.727272727272727</v>
+      <c r="D42" s="12">
+        <f>D41/11</f>
+        <v>52.636363636363633</v>
       </c>
     </row>
   </sheetData>
@@ -2757,7 +2817,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:AP1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:AO39">
+  <conditionalFormatting sqref="H3:AO40">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -2765,7 +2825,7 @@
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G38">
+  <conditionalFormatting sqref="G3:G39">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Rework">
       <formula>NOT(ISERROR(SEARCH("Rework",G3)))</formula>
     </cfRule>
@@ -2787,14 +2847,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2805,7 +2865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2816,7 +2876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2827,7 +2887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2838,7 +2898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>27</v>
       </c>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="67">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -704,7 +704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -908,7 +908,7 @@
         <v>41544</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>42</v>
@@ -954,7 +954,7 @@
         <v>41554</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>43</v>
@@ -1098,7 +1098,7 @@
         <v>41554</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>41556</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="6"/>
@@ -1510,7 +1510,7 @@
         <v>41557</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="6"/>
@@ -1743,6 +1743,9 @@
       <c r="F21" s="2">
         <v>41562</v>
       </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
       <c r="H21" s="10"/>
       <c r="I21" s="6"/>
       <c r="J21" s="8"/>
@@ -1768,6 +1771,7 @@
       <c r="Z21" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="AA21" s="10"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="8"/>
       <c r="AG21" s="10"/>
@@ -1797,6 +1801,9 @@
       <c r="F22" s="2">
         <v>41562</v>
       </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
       <c r="H22" s="10"/>
       <c r="I22" s="6"/>
       <c r="J22" s="8"/>
@@ -1822,6 +1829,7 @@
       <c r="Z22" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="AA22" s="10"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="8"/>
       <c r="AG22" s="10"/>
@@ -1851,6 +1859,9 @@
       <c r="F23" s="2">
         <v>41562</v>
       </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" s="6"/>
       <c r="J23" s="8"/>
@@ -1876,6 +1887,7 @@
       <c r="Z23" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="AA23" s="10"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="8"/>
       <c r="AG23" s="10"/>
@@ -1930,6 +1942,7 @@
       <c r="Z24" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="AA24" s="10"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="8"/>
       <c r="AG24" s="10"/>
@@ -1959,6 +1972,9 @@
       <c r="F25" s="2">
         <v>41562</v>
       </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
       <c r="H25" s="10"/>
       <c r="I25" s="6"/>
       <c r="J25" s="8"/>
@@ -1984,6 +2000,7 @@
       <c r="Z25" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="AA25" s="10"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="8"/>
       <c r="AG25" s="10"/>
@@ -2035,6 +2052,7 @@
       <c r="Z26" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="AA26" s="10"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="8"/>
       <c r="AG26" s="10"/>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="66">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>fachliches Klassenmodell erstellen</t>
-  </si>
-  <si>
-    <t>Rework</t>
   </si>
   <si>
     <t>technisches Klassenmodell - Modelschicht</t>
@@ -703,8 +700,8 @@
   <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y21" sqref="Y21"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -939,7 +936,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1299,7 +1296,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1347,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1395,7 +1392,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1410,7 +1407,7 @@
         <v>41557</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="6"/>
@@ -1614,7 +1611,7 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1698,7 +1695,7 @@
         <v>41557</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="6"/>
@@ -1744,7 +1741,7 @@
         <v>41562</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="6"/>
@@ -1802,7 +1799,7 @@
         <v>41562</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="6"/>
@@ -1860,7 +1857,7 @@
         <v>41562</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="6"/>
@@ -1973,7 +1970,7 @@
         <v>41562</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="6"/>
@@ -2016,7 +2013,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -2480,10 +2477,10 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
       </c>
       <c r="E34" s="2">
         <v>41569</v>
@@ -2520,10 +2517,10 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
         <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
       </c>
       <c r="E35" s="2">
         <v>41575</v>
@@ -2560,10 +2557,10 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
         <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
       </c>
       <c r="E36" s="2">
         <v>41577</v>
@@ -2813,7 +2810,7 @@
     </row>
     <row r="41" spans="1:42">
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41">
         <f>SUM(D6:D39)</f>
@@ -2823,7 +2820,7 @@
     </row>
     <row r="42" spans="1:42">
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="12">
         <f>D41/11</f>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="66">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -701,7 +701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1695,7 +1695,7 @@
         <v>41557</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="6"/>
@@ -1914,6 +1914,9 @@
       <c r="F24" s="2">
         <v>41562</v>
       </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
       <c r="H24" s="10"/>
       <c r="I24" s="6"/>
       <c r="J24" s="8"/>
@@ -2015,6 +2018,9 @@
       <c r="B26" t="s">
         <v>64</v>
       </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
       <c r="D26">
         <v>10</v>
       </c>
@@ -2023,6 +2029,9 @@
       </c>
       <c r="F26" s="2">
         <v>41562</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="6"/>
@@ -2078,6 +2087,9 @@
       </c>
       <c r="F27" s="2">
         <v>41562</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="6"/>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="66">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -700,8 +700,8 @@
   <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1741,7 +1741,7 @@
         <v>41562</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="6"/>
@@ -1799,7 +1799,7 @@
         <v>41562</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="6"/>
@@ -1857,7 +1857,7 @@
         <v>41562</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="6"/>
@@ -1915,7 +1915,7 @@
         <v>41562</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="6"/>
@@ -1973,7 +1973,7 @@
         <v>41562</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="6"/>
@@ -2031,7 +2031,7 @@
         <v>41562</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="6"/>
@@ -2089,7 +2089,7 @@
         <v>41562</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="6"/>
@@ -2144,6 +2144,9 @@
       </c>
       <c r="F28" s="2">
         <v>41562</v>
+      </c>
+      <c r="G28" t="s">
+        <v>65</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="6"/>
@@ -2187,6 +2190,9 @@
       </c>
       <c r="F29" s="2">
         <v>41565</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="6"/>
@@ -2263,6 +2269,9 @@
       <c r="F31" s="2">
         <v>41577</v>
       </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
       <c r="H31" s="10"/>
       <c r="I31" s="6"/>
       <c r="J31" s="8"/>
@@ -2343,6 +2352,9 @@
       <c r="F32" s="2">
         <v>41577</v>
       </c>
+      <c r="G32" t="s">
+        <v>65</v>
+      </c>
       <c r="H32" s="10"/>
       <c r="I32" s="6"/>
       <c r="J32" s="8"/>
@@ -2422,6 +2434,9 @@
       </c>
       <c r="F33" s="2">
         <v>41577</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="6"/>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Lachnit\git\Fallstudie\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="19140" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="19140" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,23 +700,23 @@
   <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="42" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="42" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H1" s="13" t="s">
         <v>40</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="AO1" s="13"/>
       <c r="AP1" s="13"/>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -885,7 +885,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:42" outlineLevel="1">
+    <row r="3" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="AO3" s="10"/>
       <c r="AP3" s="10"/>
     </row>
-    <row r="4" spans="1:42" outlineLevel="1">
+    <row r="4" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="AO4" s="10"/>
       <c r="AP4" s="10"/>
     </row>
-    <row r="5" spans="1:42" outlineLevel="1">
+    <row r="5" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="AO5" s="10"/>
       <c r="AP5" s="10"/>
     </row>
-    <row r="6" spans="1:42" outlineLevel="1">
+    <row r="6" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="AO6" s="10"/>
       <c r="AP6" s="10"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="H7" s="10"/>
@@ -1172,7 +1172,7 @@
       <c r="AO7" s="10"/>
       <c r="AP7" s="10"/>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="AO8" s="10"/>
       <c r="AP8" s="10"/>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H9" s="10"/>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -1241,7 +1241,7 @@
       <c r="AO9" s="10"/>
       <c r="AP9" s="10"/>
     </row>
-    <row r="10" spans="1:42" outlineLevel="1">
+    <row r="10" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="AO10" s="10"/>
       <c r="AP10" s="10"/>
     </row>
-    <row r="11" spans="1:42" outlineLevel="1">
+    <row r="11" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="AO11" s="10"/>
       <c r="AP11" s="10"/>
     </row>
-    <row r="12" spans="1:42" outlineLevel="1">
+    <row r="12" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="10"/>
     </row>
-    <row r="13" spans="1:42" outlineLevel="1">
+    <row r="13" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="AO13" s="10"/>
       <c r="AP13" s="10"/>
     </row>
-    <row r="14" spans="1:42" outlineLevel="1">
+    <row r="14" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="AO14" s="10"/>
       <c r="AP14" s="10"/>
     </row>
-    <row r="15" spans="1:42" outlineLevel="1">
+    <row r="15" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="AO15" s="10"/>
       <c r="AP15" s="10"/>
     </row>
-    <row r="16" spans="1:42" outlineLevel="1">
+    <row r="16" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H17" s="10"/>
       <c r="I17" s="6"/>
       <c r="J17" s="8"/>
@@ -1606,7 +1606,7 @@
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H19" s="10"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8"/>
@@ -1675,7 +1675,7 @@
       <c r="AO19" s="10"/>
       <c r="AP19" s="10"/>
     </row>
-    <row r="20" spans="1:42" outlineLevel="1">
+    <row r="20" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
     </row>
-    <row r="21" spans="1:42" outlineLevel="1">
+    <row r="21" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="AO21" s="10"/>
       <c r="AP21" s="10"/>
     </row>
-    <row r="22" spans="1:42" outlineLevel="1">
+    <row r="22" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="AO22" s="10"/>
       <c r="AP22" s="10"/>
     </row>
-    <row r="23" spans="1:42" outlineLevel="1">
+    <row r="23" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="AO23" s="10"/>
       <c r="AP23" s="10"/>
     </row>
-    <row r="24" spans="1:42" outlineLevel="1">
+    <row r="24" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="AO24" s="10"/>
       <c r="AP24" s="10"/>
     </row>
-    <row r="25" spans="1:42" outlineLevel="1">
+    <row r="25" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="AO25" s="10"/>
       <c r="AP25" s="10"/>
     </row>
-    <row r="26" spans="1:42" outlineLevel="1">
+    <row r="26" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="AO26" s="10"/>
       <c r="AP26" s="10"/>
     </row>
-    <row r="27" spans="1:42" outlineLevel="1">
+    <row r="27" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="AO27" s="10"/>
       <c r="AP27" s="10"/>
     </row>
-    <row r="28" spans="1:42" outlineLevel="1">
+    <row r="28" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="AO28" s="10"/>
       <c r="AP28" s="10"/>
     </row>
-    <row r="29" spans="1:42" outlineLevel="1">
+    <row r="29" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="AO29" s="10"/>
       <c r="AP29" s="10"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H30" s="10"/>
       <c r="I30" s="6"/>
       <c r="J30" s="8"/>
@@ -2250,7 +2250,7 @@
       <c r="AO30" s="10"/>
       <c r="AP30" s="10"/>
     </row>
-    <row r="31" spans="1:42" outlineLevel="1">
+    <row r="31" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="AP31" s="10"/>
     </row>
-    <row r="32" spans="1:42" outlineLevel="1">
+    <row r="32" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="AP32" s="10"/>
     </row>
-    <row r="33" spans="1:42" outlineLevel="1">
+    <row r="33" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="AP33" s="10"/>
     </row>
-    <row r="34" spans="1:42" outlineLevel="1">
+    <row r="34" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="AO34" s="10"/>
       <c r="AP34" s="10"/>
     </row>
-    <row r="35" spans="1:42" outlineLevel="1">
+    <row r="35" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="AO35" s="10"/>
       <c r="AP35" s="10"/>
     </row>
-    <row r="36" spans="1:42" outlineLevel="1">
+    <row r="36" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="AP36" s="10"/>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="H37" s="10"/>
@@ -2644,7 +2644,7 @@
       <c r="AO37" s="10"/>
       <c r="AP37" s="10"/>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="AP38" s="10"/>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="AP39" s="10"/>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="H40" s="10"/>
@@ -2835,7 +2835,7 @@
       <c r="AO40" s="10"/>
       <c r="AP40" s="10"/>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>59</v>
       </c>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>60</v>
       </c>
@@ -2889,14 +2889,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>

--- a/Projektmanagement/Aufgaben.xlsx
+++ b/Projektmanagement/Aufgaben.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Lachnit\git\Fallstudie\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="66">
   <si>
     <t>UseCases erstellen</t>
   </si>
@@ -269,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,22 +701,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="42" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="42" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="H1" s="13" t="s">
         <v>40</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="AO1" s="13"/>
       <c r="AP1" s="13"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -885,7 +885,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" outlineLevel="1">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="AO3" s="10"/>
       <c r="AP3" s="10"/>
     </row>
-    <row r="4" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" outlineLevel="1">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="AO4" s="10"/>
       <c r="AP4" s="10"/>
     </row>
-    <row r="5" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" outlineLevel="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="AO5" s="10"/>
       <c r="AP5" s="10"/>
     </row>
-    <row r="6" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" outlineLevel="1">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="AO6" s="10"/>
       <c r="AP6" s="10"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="H7" s="10"/>
@@ -1172,7 +1172,7 @@
       <c r="AO7" s="10"/>
       <c r="AP7" s="10"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="AO8" s="10"/>
       <c r="AP8" s="10"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42">
       <c r="H9" s="10"/>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -1241,7 +1241,7 @@
       <c r="AO9" s="10"/>
       <c r="AP9" s="10"/>
     </row>
-    <row r="10" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" outlineLevel="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="AO10" s="10"/>
       <c r="AP10" s="10"/>
     </row>
-    <row r="11" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" outlineLevel="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="AO11" s="10"/>
       <c r="AP11" s="10"/>
     </row>
-    <row r="12" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" outlineLevel="1">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="10"/>
     </row>
-    <row r="13" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" outlineLevel="1">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="AO13" s="10"/>
       <c r="AP13" s="10"/>
     </row>
-    <row r="14" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" outlineLevel="1">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="AO14" s="10"/>
       <c r="AP14" s="10"/>
     </row>
-    <row r="15" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" outlineLevel="1">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="AO15" s="10"/>
       <c r="AP15" s="10"/>
     </row>
-    <row r="16" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" outlineLevel="1">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42">
       <c r="H17" s="10"/>
       <c r="I17" s="6"/>
       <c r="J17" s="8"/>
@@ -1606,7 +1606,7 @@
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42">
       <c r="H19" s="10"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8"/>
@@ -1675,7 +1675,7 @@
       <c r="AO19" s="10"/>
       <c r="AP19" s="10"/>
     </row>
-    <row r="20" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" outlineLevel="1">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
     </row>
-    <row r="21" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" outlineLevel="1">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="AO21" s="10"/>
       <c r="AP21" s="10"/>
     </row>
-    <row r="22" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" outlineLevel="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="AO22" s="10"/>
       <c r="AP22" s="10"/>
     </row>
-    <row r="23" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" outlineLevel="1">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="AO23" s="10"/>
       <c r="AP23" s="10"/>
     </row>
-    <row r="24" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" outlineLevel="1">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="AO24" s="10"/>
       <c r="AP24" s="10"/>
     </row>
-    <row r="25" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" outlineLevel="1">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="AO25" s="10"/>
       <c r="AP25" s="10"/>
     </row>
-    <row r="26" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" outlineLevel="1">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="AO26" s="10"/>
       <c r="AP26" s="10"/>
     </row>
-    <row r="27" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" outlineLevel="1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="AO27" s="10"/>
       <c r="AP27" s="10"/>
     </row>
-    <row r="28" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" outlineLevel="1">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>41562</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="6"/>
@@ -2172,7 +2172,7 @@
       <c r="AO28" s="10"/>
       <c r="AP28" s="10"/>
     </row>
-    <row r="29" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" outlineLevel="1">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2190,9 +2190,6 @@
       </c>
       <c r="F29" s="2">
         <v>41565</v>
-      </c>
-      <c r="G29" t="s">
-        <v>65</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="6"/>
@@ -2227,7 +2224,7 @@
       <c r="AO29" s="10"/>
       <c r="AP29" s="10"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42">
       <c r="H30" s="10"/>
       <c r="I30" s="6"/>
       <c r="J30" s="8"/>
@@ -2250,7 +2247,7 @@
       <c r="AO30" s="10"/>
       <c r="AP30" s="10"/>
     </row>
-    <row r="31" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" outlineLevel="1">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2270,7 +2267,7 @@
         <v>41577</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="6"/>
@@ -2333,7 +2330,7 @@
       </c>
       <c r="AP31" s="10"/>
     </row>
-    <row r="32" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" outlineLevel="1">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2353,7 +2350,7 @@
         <v>41577</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="6"/>
@@ -2416,7 +2413,7 @@
       </c>
       <c r="AP32" s="10"/>
     </row>
-    <row r="33" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" outlineLevel="1">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2436,7 +2433,7 @@
         <v>41577</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="6"/>
@@ -2499,7 +2496,7 @@
       </c>
       <c r="AP33" s="10"/>
     </row>
-    <row r="34" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" outlineLevel="1">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2514,6 +2511,9 @@
       </c>
       <c r="F34" s="2">
         <v>41569</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="6"/>
@@ -2539,7 +2539,7 @@
       <c r="AO34" s="10"/>
       <c r="AP34" s="10"/>
     </row>
-    <row r="35" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" outlineLevel="1">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2554,6 +2554,9 @@
       </c>
       <c r="F35" s="2">
         <v>41575</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="6"/>
@@ -2579,7 +2582,7 @@
       <c r="AO35" s="10"/>
       <c r="AP35" s="10"/>
     </row>
-    <row r="36" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" outlineLevel="1">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2619,7 +2622,7 @@
       </c>
       <c r="AP36" s="10"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="H37" s="10"/>
@@ -2644,7 +2647,7 @@
       <c r="AO37" s="10"/>
       <c r="AP37" s="10"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2663,6 +2666,9 @@
       <c r="F38" s="2">
         <v>41577</v>
       </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
       <c r="H38" s="10" t="s">
         <v>43</v>
       </c>
@@ -2767,7 +2773,7 @@
       </c>
       <c r="AP38" s="10"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2785,6 +2791,9 @@
       </c>
       <c r="F39" s="2">
         <v>41577</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="6"/>
@@ -2810,7 +2819,7 @@
       </c>
       <c r="AP39" s="10"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="H40" s="10"/>
@@ -2835,7 +2844,7 @@
       <c r="AO40" s="10"/>
       <c r="AP40" s="10"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42">
       <c r="C41" t="s">
         <v>59</v>
       </c>
@@ -2845,7 +2854,7 @@
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42">
       <c r="C42" t="s">
         <v>60</v>
       </c>
@@ -2889,14 +2898,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2918,7 +2927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2940,7 +2949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
